--- a/PythonResources/Data/Consumption/Sympheny/futu_1345_hea.xlsx
+++ b/PythonResources/Data/Consumption/Sympheny/futu_1345_hea.xlsx
@@ -631,7 +631,7 @@
         <v>36</v>
       </c>
       <c r="B36">
-        <v>82.23309580902554</v>
+        <v>82.23309580902553</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -663,7 +663,7 @@
         <v>40</v>
       </c>
       <c r="B40">
-        <v>61.86846854556464</v>
+        <v>61.86846854556463</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -719,7 +719,7 @@
         <v>47</v>
       </c>
       <c r="B47">
-        <v>68.87579707995741</v>
+        <v>68.87579707995739</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -727,7 +727,7 @@
         <v>48</v>
       </c>
       <c r="B48">
-        <v>69.71163568221957</v>
+        <v>69.71163568221955</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -751,7 +751,7 @@
         <v>51</v>
       </c>
       <c r="B51">
-        <v>71.65030060296436</v>
+        <v>71.65030060296435</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -799,7 +799,7 @@
         <v>57</v>
       </c>
       <c r="B57">
-        <v>70.55743869979621</v>
+        <v>70.55743869979619</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -903,7 +903,7 @@
         <v>70</v>
       </c>
       <c r="B70">
-        <v>43.30124596221377</v>
+        <v>43.30124596221376</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -911,7 +911,7 @@
         <v>71</v>
       </c>
       <c r="B71">
-        <v>44.78682305718813</v>
+        <v>44.78682305718812</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -919,7 +919,7 @@
         <v>72</v>
       </c>
       <c r="B72">
-        <v>47.64485182621357</v>
+        <v>47.64485182621356</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -975,7 +975,7 @@
         <v>79</v>
       </c>
       <c r="B79">
-        <v>58.15643076988004</v>
+        <v>58.15643076988003</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -1031,7 +1031,7 @@
         <v>86</v>
       </c>
       <c r="B86">
-        <v>20.09148505542853</v>
+        <v>20.09148505542852</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -1087,7 +1087,7 @@
         <v>93</v>
       </c>
       <c r="B93">
-        <v>38.5449960757788</v>
+        <v>38.54499607577879</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -1095,7 +1095,7 @@
         <v>94</v>
       </c>
       <c r="B94">
-        <v>40.42240914944338</v>
+        <v>40.42240914944337</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -1103,7 +1103,7 @@
         <v>95</v>
       </c>
       <c r="B95">
-        <v>42.2312436000612</v>
+        <v>42.23124360006119</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -1239,7 +1239,7 @@
         <v>112</v>
       </c>
       <c r="B112">
-        <v>41.43379730386368</v>
+        <v>41.43379730386367</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -1271,7 +1271,7 @@
         <v>116</v>
       </c>
       <c r="B116">
-        <v>48.00913912726962</v>
+        <v>48.00913912726961</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -1295,7 +1295,7 @@
         <v>119</v>
       </c>
       <c r="B119">
-        <v>52.87030844554536</v>
+        <v>52.87030844554535</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -1367,7 +1367,7 @@
         <v>128</v>
       </c>
       <c r="B128">
-        <v>83.05838385389589</v>
+        <v>83.05838385389588</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -1391,7 +1391,7 @@
         <v>131</v>
       </c>
       <c r="B131">
-        <v>65.89262697742357</v>
+        <v>65.89262697742356</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -1423,7 +1423,7 @@
         <v>135</v>
       </c>
       <c r="B135">
-        <v>44.43777545014247</v>
+        <v>44.43777545014246</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -1431,7 +1431,7 @@
         <v>136</v>
       </c>
       <c r="B136">
-        <v>44.09341697971539</v>
+        <v>44.09341697971538</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -1447,7 +1447,7 @@
         <v>138</v>
       </c>
       <c r="B138">
-        <v>57.80767623387304</v>
+        <v>57.80767623387303</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -1511,7 +1511,7 @@
         <v>146</v>
       </c>
       <c r="B146">
-        <v>67.0517229353292</v>
+        <v>67.05172293532918</v>
       </c>
     </row>
     <row r="147" spans="1:2">
@@ -1535,7 +1535,7 @@
         <v>149</v>
       </c>
       <c r="B149">
-        <v>85.65528632747407</v>
+        <v>85.65528632747406</v>
       </c>
     </row>
     <row r="150" spans="1:2">
@@ -1663,7 +1663,7 @@
         <v>165</v>
       </c>
       <c r="B165">
-        <v>51.29563775481795</v>
+        <v>51.29563775481794</v>
       </c>
     </row>
     <row r="166" spans="1:2">
@@ -1679,7 +1679,7 @@
         <v>167</v>
       </c>
       <c r="B167">
-        <v>55.35408549820026</v>
+        <v>55.35408549820025</v>
       </c>
     </row>
     <row r="168" spans="1:2">
@@ -1735,7 +1735,7 @@
         <v>174</v>
       </c>
       <c r="B174">
-        <v>67.23049626891262</v>
+        <v>67.2304962689126</v>
       </c>
     </row>
     <row r="175" spans="1:2">
@@ -1791,7 +1791,7 @@
         <v>181</v>
       </c>
       <c r="B181">
-        <v>36.33582658634958</v>
+        <v>36.33582658634957</v>
       </c>
     </row>
     <row r="182" spans="1:2">
@@ -1847,7 +1847,7 @@
         <v>188</v>
       </c>
       <c r="B188">
-        <v>38.98313727857751</v>
+        <v>38.9831372785775</v>
       </c>
     </row>
     <row r="189" spans="1:2">
@@ -1919,7 +1919,7 @@
         <v>197</v>
       </c>
       <c r="B197">
-        <v>78.1544261639756</v>
+        <v>78.15442616397559</v>
       </c>
     </row>
     <row r="198" spans="1:2">
@@ -1975,7 +1975,7 @@
         <v>204</v>
       </c>
       <c r="B204">
-        <v>62.55923698368943</v>
+        <v>62.55923698368942</v>
       </c>
     </row>
     <row r="205" spans="1:2">
@@ -2071,7 +2071,7 @@
         <v>216</v>
       </c>
       <c r="B216">
-        <v>64.69308721618269</v>
+        <v>64.69308721618268</v>
       </c>
     </row>
     <row r="217" spans="1:2">
@@ -2095,7 +2095,7 @@
         <v>219</v>
       </c>
       <c r="B219">
-        <v>71.65821352100822</v>
+        <v>71.65821352100821</v>
       </c>
     </row>
     <row r="220" spans="1:2">
@@ -2103,7 +2103,7 @@
         <v>220</v>
       </c>
       <c r="B220">
-        <v>73.46441033227809</v>
+        <v>73.46441033227808</v>
       </c>
     </row>
     <row r="221" spans="1:2">
@@ -2151,7 +2151,7 @@
         <v>226</v>
       </c>
       <c r="B226">
-        <v>75.22693955878742</v>
+        <v>75.22693955878741</v>
       </c>
     </row>
     <row r="227" spans="1:2">
@@ -2239,7 +2239,7 @@
         <v>237</v>
       </c>
       <c r="B237">
-        <v>59.98314255385621</v>
+        <v>59.9831425538562</v>
       </c>
     </row>
     <row r="238" spans="1:2">
@@ -2287,7 +2287,7 @@
         <v>243</v>
       </c>
       <c r="B243">
-        <v>74.49572731732736</v>
+        <v>74.49572731732735</v>
       </c>
     </row>
     <row r="244" spans="1:2">
@@ -2399,7 +2399,7 @@
         <v>257</v>
       </c>
       <c r="B257">
-        <v>42.69986419088069</v>
+        <v>42.69986419088068</v>
       </c>
     </row>
     <row r="258" spans="1:2">
@@ -2487,7 +2487,7 @@
         <v>268</v>
       </c>
       <c r="B268">
-        <v>64.84020887759068</v>
+        <v>64.84020887759067</v>
       </c>
     </row>
     <row r="269" spans="1:2">
@@ -2583,7 +2583,7 @@
         <v>280</v>
       </c>
       <c r="B280">
-        <v>7.653726017264229</v>
+        <v>7.653726017264228</v>
       </c>
     </row>
     <row r="281" spans="1:2">
@@ -2719,7 +2719,7 @@
         <v>297</v>
       </c>
       <c r="B297">
-        <v>41.58912495435419</v>
+        <v>41.58912495435418</v>
       </c>
     </row>
     <row r="298" spans="1:2">
@@ -2727,7 +2727,7 @@
         <v>298</v>
       </c>
       <c r="B298">
-        <v>28.46798286823937</v>
+        <v>28.46798286823936</v>
       </c>
     </row>
     <row r="299" spans="1:2">
@@ -2759,7 +2759,7 @@
         <v>302</v>
       </c>
       <c r="B302">
-        <v>4.174503874692203</v>
+        <v>4.174503874692202</v>
       </c>
     </row>
     <row r="303" spans="1:2">
@@ -2783,7 +2783,7 @@
         <v>305</v>
       </c>
       <c r="B305">
-        <v>15.95033266493599</v>
+        <v>15.95033266493598</v>
       </c>
     </row>
     <row r="306" spans="1:2">
@@ -2799,7 +2799,7 @@
         <v>307</v>
       </c>
       <c r="B307">
-        <v>26.03150748122441</v>
+        <v>26.0315074812244</v>
       </c>
     </row>
     <row r="308" spans="1:2">
@@ -2903,7 +2903,7 @@
         <v>320</v>
       </c>
       <c r="B320">
-        <v>70.0275662618965</v>
+        <v>70.02756626189648</v>
       </c>
     </row>
     <row r="321" spans="1:2">
@@ -2951,7 +2951,7 @@
         <v>326</v>
       </c>
       <c r="B326">
-        <v>14.38134755235861</v>
+        <v>14.3813475523586</v>
       </c>
     </row>
     <row r="327" spans="1:2">
@@ -3007,7 +3007,7 @@
         <v>333</v>
       </c>
       <c r="B333">
-        <v>26.44333090475133</v>
+        <v>26.44333090475132</v>
       </c>
     </row>
     <row r="334" spans="1:2">
@@ -3239,7 +3239,7 @@
         <v>362</v>
       </c>
       <c r="B362">
-        <v>59.62676817084401</v>
+        <v>59.626768170844</v>
       </c>
     </row>
     <row r="363" spans="1:2">
@@ -3287,7 +3287,7 @@
         <v>368</v>
       </c>
       <c r="B368">
-        <v>63.93725700747508</v>
+        <v>63.93725700747507</v>
       </c>
     </row>
     <row r="369" spans="1:2">
@@ -3303,7 +3303,7 @@
         <v>370</v>
       </c>
       <c r="B370">
-        <v>49.13277348949722</v>
+        <v>49.13277348949721</v>
       </c>
     </row>
     <row r="371" spans="1:2">
@@ -3343,7 +3343,7 @@
         <v>375</v>
       </c>
       <c r="B375">
-        <v>7.980500225371629</v>
+        <v>7.980500225371628</v>
       </c>
     </row>
     <row r="376" spans="1:2">
@@ -3367,7 +3367,7 @@
         <v>378</v>
       </c>
       <c r="B378">
-        <v>25.98833811722959</v>
+        <v>25.98833811722958</v>
       </c>
     </row>
     <row r="379" spans="1:2">
@@ -3439,7 +3439,7 @@
         <v>387</v>
       </c>
       <c r="B387">
-        <v>59.92980362481984</v>
+        <v>59.92980362481983</v>
       </c>
     </row>
     <row r="388" spans="1:2">
@@ -3543,7 +3543,7 @@
         <v>400</v>
       </c>
       <c r="B400">
-        <v>31.49487916974148</v>
+        <v>31.49487916974147</v>
       </c>
     </row>
     <row r="401" spans="1:2">
@@ -3551,7 +3551,7 @@
         <v>401</v>
       </c>
       <c r="B401">
-        <v>38.78443511436512</v>
+        <v>38.78443511436511</v>
       </c>
     </row>
     <row r="402" spans="1:2">
@@ -3639,7 +3639,7 @@
         <v>412</v>
       </c>
       <c r="B412">
-        <v>71.36016027468963</v>
+        <v>71.36016027468962</v>
       </c>
     </row>
     <row r="413" spans="1:2">
@@ -3663,7 +3663,7 @@
         <v>415</v>
       </c>
       <c r="B415">
-        <v>77.20458292767418</v>
+        <v>77.20458292767417</v>
       </c>
     </row>
     <row r="416" spans="1:2">
@@ -3687,7 +3687,7 @@
         <v>418</v>
       </c>
       <c r="B418">
-        <v>74.10154677032786</v>
+        <v>74.10154677032784</v>
       </c>
     </row>
     <row r="419" spans="1:2">
@@ -3743,7 +3743,7 @@
         <v>425</v>
       </c>
       <c r="B425">
-        <v>51.17840933935341</v>
+        <v>51.1784093393534</v>
       </c>
     </row>
     <row r="426" spans="1:2">
@@ -3759,7 +3759,7 @@
         <v>427</v>
       </c>
       <c r="B427">
-        <v>61.77468581319301</v>
+        <v>61.774685813193</v>
       </c>
     </row>
     <row r="428" spans="1:2">
@@ -3783,7 +3783,7 @@
         <v>430</v>
       </c>
       <c r="B430">
-        <v>66.40257058469432</v>
+        <v>66.4025705846943</v>
       </c>
     </row>
     <row r="431" spans="1:2">
@@ -3807,7 +3807,7 @@
         <v>433</v>
       </c>
       <c r="B433">
-        <v>71.95890440667476</v>
+        <v>71.95890440667475</v>
       </c>
     </row>
     <row r="434" spans="1:2">
@@ -3911,7 +3911,7 @@
         <v>446</v>
       </c>
       <c r="B446">
-        <v>55.62459006688468</v>
+        <v>55.62459006688467</v>
       </c>
     </row>
     <row r="447" spans="1:2">
@@ -3967,7 +3967,7 @@
         <v>453</v>
       </c>
       <c r="B453">
-        <v>60.40897477303114</v>
+        <v>60.40897477303113</v>
       </c>
     </row>
     <row r="454" spans="1:2">
@@ -3975,7 +3975,7 @@
         <v>454</v>
       </c>
       <c r="B454">
-        <v>62.11054522349891</v>
+        <v>62.1105452234989</v>
       </c>
     </row>
     <row r="455" spans="1:2">
@@ -3999,7 +3999,7 @@
         <v>457</v>
       </c>
       <c r="B457">
-        <v>68.61877377905141</v>
+        <v>68.61877377905139</v>
       </c>
     </row>
     <row r="458" spans="1:2">
@@ -4031,7 +4031,7 @@
         <v>461</v>
       </c>
       <c r="B461">
-        <v>74.07575651892566</v>
+        <v>74.07575651892564</v>
       </c>
     </row>
     <row r="462" spans="1:2">
@@ -4103,7 +4103,7 @@
         <v>470</v>
       </c>
       <c r="B470">
-        <v>46.88843547542864</v>
+        <v>46.88843547542863</v>
       </c>
     </row>
     <row r="471" spans="1:2">
@@ -4119,7 +4119,7 @@
         <v>472</v>
       </c>
       <c r="B472">
-        <v>37.72205259921774</v>
+        <v>37.72205259921773</v>
       </c>
     </row>
     <row r="473" spans="1:2">
@@ -4135,7 +4135,7 @@
         <v>474</v>
       </c>
       <c r="B474">
-        <v>58.96940983112661</v>
+        <v>58.9694098311266</v>
       </c>
     </row>
     <row r="475" spans="1:2">
@@ -4159,7 +4159,7 @@
         <v>477</v>
       </c>
       <c r="B477">
-        <v>56.75525813404015</v>
+        <v>56.75525813404014</v>
       </c>
     </row>
     <row r="478" spans="1:2">
@@ -4167,7 +4167,7 @@
         <v>478</v>
       </c>
       <c r="B478">
-        <v>58.65113468314039</v>
+        <v>58.65113468314038</v>
       </c>
     </row>
     <row r="479" spans="1:2">
@@ -4183,7 +4183,7 @@
         <v>480</v>
       </c>
       <c r="B480">
-        <v>62.34529512546665</v>
+        <v>62.34529512546664</v>
       </c>
     </row>
     <row r="481" spans="1:2">
@@ -4207,7 +4207,7 @@
         <v>483</v>
       </c>
       <c r="B483">
-        <v>66.21119519644846</v>
+        <v>66.21119519644844</v>
       </c>
     </row>
     <row r="484" spans="1:2">
@@ -4271,7 +4271,7 @@
         <v>491</v>
       </c>
       <c r="B491">
-        <v>61.53729827187732</v>
+        <v>61.53729827187731</v>
       </c>
     </row>
     <row r="492" spans="1:2">
@@ -4311,7 +4311,7 @@
         <v>496</v>
       </c>
       <c r="B496">
-        <v>39.02387415295144</v>
+        <v>39.02387415295143</v>
       </c>
     </row>
     <row r="497" spans="1:2">
@@ -4327,7 +4327,7 @@
         <v>498</v>
       </c>
       <c r="B498">
-        <v>35.49793648681679</v>
+        <v>35.49793648681678</v>
       </c>
     </row>
     <row r="499" spans="1:2">
@@ -4335,7 +4335,7 @@
         <v>499</v>
       </c>
       <c r="B499">
-        <v>40.59326956498294</v>
+        <v>40.59326956498293</v>
       </c>
     </row>
     <row r="500" spans="1:2">
@@ -4343,7 +4343,7 @@
         <v>500</v>
       </c>
       <c r="B500">
-        <v>44.39176329707264</v>
+        <v>44.39176329707263</v>
       </c>
     </row>
     <row r="501" spans="1:2">
@@ -4415,7 +4415,7 @@
         <v>509</v>
       </c>
       <c r="B509">
-        <v>62.15890194487803</v>
+        <v>62.15890194487802</v>
       </c>
     </row>
     <row r="510" spans="1:2">
@@ -4447,7 +4447,7 @@
         <v>513</v>
       </c>
       <c r="B513">
-        <v>68.66185522173463</v>
+        <v>68.66185522173461</v>
       </c>
     </row>
     <row r="514" spans="1:2">
@@ -4463,7 +4463,7 @@
         <v>515</v>
       </c>
       <c r="B515">
-        <v>55.15333183671724</v>
+        <v>55.15333183671723</v>
       </c>
     </row>
     <row r="516" spans="1:2">
@@ -4559,7 +4559,7 @@
         <v>527</v>
       </c>
       <c r="B527">
-        <v>50.90585327339836</v>
+        <v>50.90585327339835</v>
       </c>
     </row>
     <row r="528" spans="1:2">
@@ -4583,7 +4583,7 @@
         <v>530</v>
       </c>
       <c r="B530">
-        <v>56.66147540166852</v>
+        <v>56.66147540166851</v>
       </c>
     </row>
     <row r="531" spans="1:2">
@@ -4599,7 +4599,7 @@
         <v>532</v>
       </c>
       <c r="B532">
-        <v>58.60014032241332</v>
+        <v>58.60014032241331</v>
       </c>
     </row>
     <row r="533" spans="1:2">
@@ -4823,7 +4823,7 @@
         <v>560</v>
       </c>
       <c r="B560">
-        <v>78.65645685320249</v>
+        <v>78.65645685320247</v>
       </c>
     </row>
     <row r="561" spans="1:2">
@@ -4831,7 +4831,7 @@
         <v>561</v>
       </c>
       <c r="B561">
-        <v>74.70029090231299</v>
+        <v>74.70029090231297</v>
       </c>
     </row>
     <row r="562" spans="1:2">
@@ -4847,7 +4847,7 @@
         <v>563</v>
       </c>
       <c r="B563">
-        <v>47.65540238360538</v>
+        <v>47.65540238360537</v>
       </c>
     </row>
     <row r="564" spans="1:2">
@@ -4855,7 +4855,7 @@
         <v>564</v>
       </c>
       <c r="B564">
-        <v>36.47093233517246</v>
+        <v>36.47093233517245</v>
       </c>
     </row>
     <row r="565" spans="1:2">
@@ -4951,7 +4951,7 @@
         <v>576</v>
       </c>
       <c r="B576">
-        <v>43.25288924083465</v>
+        <v>43.25288924083464</v>
       </c>
     </row>
     <row r="577" spans="1:2">
@@ -5007,7 +5007,7 @@
         <v>583</v>
       </c>
       <c r="B583">
-        <v>63.76698273401284</v>
+        <v>63.76698273401283</v>
       </c>
     </row>
     <row r="584" spans="1:2">
@@ -5119,7 +5119,7 @@
         <v>597</v>
       </c>
       <c r="B597">
-        <v>23.71850292279747</v>
+        <v>23.71850292279746</v>
       </c>
     </row>
     <row r="598" spans="1:2">
@@ -5175,7 +5175,7 @@
         <v>604</v>
       </c>
       <c r="B604">
-        <v>38.66691362786192</v>
+        <v>38.66691362786191</v>
       </c>
     </row>
     <row r="605" spans="1:2">
@@ -5199,7 +5199,7 @@
         <v>607</v>
       </c>
       <c r="B607">
-        <v>43.26812893484504</v>
+        <v>43.26812893484503</v>
       </c>
     </row>
     <row r="608" spans="1:2">
@@ -5303,7 +5303,7 @@
         <v>620</v>
       </c>
       <c r="B620">
-        <v>17.95282845790123</v>
+        <v>17.95282845790122</v>
       </c>
     </row>
     <row r="621" spans="1:2">
@@ -5375,7 +5375,7 @@
         <v>629</v>
       </c>
       <c r="B629">
-        <v>75.96342707894338</v>
+        <v>75.96342707894337</v>
       </c>
     </row>
     <row r="630" spans="1:2">
@@ -5463,7 +5463,7 @@
         <v>640</v>
       </c>
       <c r="B640">
-        <v>9.749389093419913</v>
+        <v>9.749389093419911</v>
       </c>
     </row>
     <row r="641" spans="1:2">
@@ -5559,7 +5559,7 @@
         <v>652</v>
       </c>
       <c r="B652">
-        <v>63.8733675210469</v>
+        <v>63.87336752104689</v>
       </c>
     </row>
     <row r="653" spans="1:2">
@@ -5607,7 +5607,7 @@
         <v>658</v>
       </c>
       <c r="B658">
-        <v>77.82061825094033</v>
+        <v>77.82061825094031</v>
       </c>
     </row>
     <row r="659" spans="1:2">
@@ -5615,7 +5615,7 @@
         <v>659</v>
       </c>
       <c r="B659">
-        <v>63.63129084311263</v>
+        <v>63.63129084311262</v>
       </c>
     </row>
     <row r="660" spans="1:2">
@@ -5639,7 +5639,7 @@
         <v>662</v>
       </c>
       <c r="B662">
-        <v>36.05565067338933</v>
+        <v>36.05565067338932</v>
       </c>
     </row>
     <row r="663" spans="1:2">
@@ -5647,7 +5647,7 @@
         <v>663</v>
       </c>
       <c r="B663">
-        <v>37.95123415145091</v>
+        <v>37.9512341514509</v>
       </c>
     </row>
     <row r="664" spans="1:2">
@@ -5687,7 +5687,7 @@
         <v>668</v>
       </c>
       <c r="B668">
-        <v>44.36890375605705</v>
+        <v>44.36890375605704</v>
       </c>
     </row>
     <row r="669" spans="1:2">
@@ -5719,7 +5719,7 @@
         <v>672</v>
       </c>
       <c r="B672">
-        <v>53.74952156152939</v>
+        <v>53.74952156152938</v>
       </c>
     </row>
     <row r="673" spans="1:2">
@@ -5759,7 +5759,7 @@
         <v>677</v>
       </c>
       <c r="B677">
-        <v>65.40847362155503</v>
+        <v>65.40847362155502</v>
       </c>
     </row>
     <row r="678" spans="1:2">
@@ -5767,7 +5767,7 @@
         <v>678</v>
       </c>
       <c r="B678">
-        <v>65.8416326166965</v>
+        <v>65.84163261669649</v>
       </c>
     </row>
     <row r="679" spans="1:2">
@@ -5847,7 +5847,7 @@
         <v>688</v>
       </c>
       <c r="B688">
-        <v>9.290908760538104</v>
+        <v>9.290908760538102</v>
       </c>
     </row>
     <row r="689" spans="1:2">
@@ -5919,7 +5919,7 @@
         <v>697</v>
       </c>
       <c r="B697">
-        <v>43.03894738261187</v>
+        <v>43.03894738261186</v>
       </c>
     </row>
     <row r="698" spans="1:2">
@@ -5935,7 +5935,7 @@
         <v>699</v>
       </c>
       <c r="B699">
-        <v>50.67930936051314</v>
+        <v>50.67930936051313</v>
       </c>
     </row>
     <row r="700" spans="1:2">
@@ -5943,7 +5943,7 @@
         <v>700</v>
       </c>
       <c r="B700">
-        <v>52.8017298224986</v>
+        <v>52.80172982249859</v>
       </c>
     </row>
     <row r="701" spans="1:2">
@@ -6095,7 +6095,7 @@
         <v>719</v>
       </c>
       <c r="B719">
-        <v>19.42492428509717</v>
+        <v>19.42492428509716</v>
       </c>
     </row>
     <row r="720" spans="1:2">
@@ -6135,7 +6135,7 @@
         <v>724</v>
       </c>
       <c r="B724">
-        <v>39.76270624141669</v>
+        <v>39.76270624141668</v>
       </c>
     </row>
     <row r="725" spans="1:2">
@@ -6503,7 +6503,7 @@
         <v>770</v>
       </c>
       <c r="B770">
-        <v>50.72766608189226</v>
+        <v>50.72766608189225</v>
       </c>
     </row>
     <row r="771" spans="1:2">
@@ -6599,7 +6599,7 @@
         <v>782</v>
       </c>
       <c r="B782">
-        <v>36.95743025935029</v>
+        <v>36.95743025935028</v>
       </c>
     </row>
     <row r="783" spans="1:2">
@@ -6671,7 +6671,7 @@
         <v>791</v>
       </c>
       <c r="B791">
-        <v>50.74319884694131</v>
+        <v>50.7431988469413</v>
       </c>
     </row>
     <row r="792" spans="1:2">
@@ -6735,7 +6735,7 @@
         <v>799</v>
       </c>
       <c r="B799">
-        <v>85.95597721314061</v>
+        <v>85.9559772131406</v>
       </c>
     </row>
     <row r="800" spans="1:2">
@@ -6759,7 +6759,7 @@
         <v>802</v>
       </c>
       <c r="B802">
-        <v>70.08119826197152</v>
+        <v>70.08119826197151</v>
       </c>
     </row>
     <row r="803" spans="1:2">
@@ -6815,7 +6815,7 @@
         <v>809</v>
       </c>
       <c r="B809">
-        <v>32.30815130202671</v>
+        <v>32.3081513020267</v>
       </c>
     </row>
     <row r="810" spans="1:2">
@@ -6823,7 +6823,7 @@
         <v>810</v>
       </c>
       <c r="B810">
-        <v>40.82743332487336</v>
+        <v>40.82743332487335</v>
       </c>
     </row>
     <row r="811" spans="1:2">
@@ -6839,7 +6839,7 @@
         <v>812</v>
       </c>
       <c r="B812">
-        <v>40.99067389340773</v>
+        <v>40.99067389340772</v>
       </c>
     </row>
     <row r="813" spans="1:2">
@@ -6919,7 +6919,7 @@
         <v>822</v>
       </c>
       <c r="B822">
-        <v>86.77071470061915</v>
+        <v>86.77071470061914</v>
       </c>
     </row>
     <row r="823" spans="1:2">
@@ -6951,7 +6951,7 @@
         <v>826</v>
       </c>
       <c r="B826">
-        <v>72.88823267026989</v>
+        <v>72.88823267026987</v>
       </c>
     </row>
     <row r="827" spans="1:2">
@@ -7071,7 +7071,7 @@
         <v>841</v>
       </c>
       <c r="B841">
-        <v>41.97890943577378</v>
+        <v>41.97890943577377</v>
       </c>
     </row>
     <row r="842" spans="1:2">
@@ -7079,7 +7079,7 @@
         <v>842</v>
       </c>
       <c r="B842">
-        <v>43.99699660799581</v>
+        <v>43.9969966079958</v>
       </c>
     </row>
     <row r="843" spans="1:2">
@@ -7287,7 +7287,7 @@
         <v>868</v>
       </c>
       <c r="B868">
-        <v>32.37174771741622</v>
+        <v>32.37174771741621</v>
       </c>
     </row>
     <row r="869" spans="1:2">
@@ -7311,7 +7311,7 @@
         <v>871</v>
       </c>
       <c r="B871">
-        <v>36.98322051075249</v>
+        <v>36.98322051075248</v>
       </c>
     </row>
     <row r="872" spans="1:2">
@@ -7319,7 +7319,7 @@
         <v>872</v>
       </c>
       <c r="B872">
-        <v>37.30149565873871</v>
+        <v>37.3014956587387</v>
       </c>
     </row>
     <row r="873" spans="1:2">
@@ -7631,7 +7631,7 @@
         <v>911</v>
       </c>
       <c r="B911">
-        <v>48.27173077791019</v>
+        <v>48.27173077791018</v>
       </c>
     </row>
     <row r="912" spans="1:2">
@@ -7671,7 +7671,7 @@
         <v>916</v>
       </c>
       <c r="B916">
-        <v>62.8748744923277</v>
+        <v>62.87487449232769</v>
       </c>
     </row>
     <row r="917" spans="1:2">
@@ -7679,7 +7679,7 @@
         <v>917</v>
       </c>
       <c r="B917">
-        <v>64.67726138009498</v>
+        <v>64.67726138009496</v>
       </c>
     </row>
     <row r="918" spans="1:2">
@@ -7703,7 +7703,7 @@
         <v>920</v>
       </c>
       <c r="B920">
-        <v>70.16999878668591</v>
+        <v>70.16999878668589</v>
       </c>
     </row>
     <row r="921" spans="1:2">
@@ -7719,7 +7719,7 @@
         <v>922</v>
       </c>
       <c r="B922">
-        <v>62.28931855708233</v>
+        <v>62.28931855708232</v>
       </c>
     </row>
     <row r="923" spans="1:2">
@@ -7831,7 +7831,7 @@
         <v>936</v>
       </c>
       <c r="B936">
-        <v>48.24652666858531</v>
+        <v>48.2465266685853</v>
       </c>
     </row>
     <row r="937" spans="1:2">
@@ -7879,7 +7879,7 @@
         <v>942</v>
       </c>
       <c r="B942">
-        <v>61.16040891615883</v>
+        <v>61.16040891615882</v>
       </c>
     </row>
     <row r="943" spans="1:2">
@@ -7911,7 +7911,7 @@
         <v>946</v>
       </c>
       <c r="B946">
-        <v>56.57179566383815</v>
+        <v>56.57179566383814</v>
       </c>
     </row>
     <row r="947" spans="1:2">
@@ -7927,7 +7927,7 @@
         <v>948</v>
       </c>
       <c r="B948">
-        <v>28.46514007916436</v>
+        <v>28.46514007916435</v>
       </c>
     </row>
     <row r="949" spans="1:2">
@@ -7951,7 +7951,7 @@
         <v>951</v>
       </c>
       <c r="B951">
-        <v>20.85297153518231</v>
+        <v>20.8529715351823</v>
       </c>
     </row>
     <row r="952" spans="1:2">
@@ -7983,7 +7983,7 @@
         <v>955</v>
       </c>
       <c r="B955">
-        <v>34.32096319555283</v>
+        <v>34.32096319555282</v>
       </c>
     </row>
     <row r="956" spans="1:2">
@@ -8023,7 +8023,7 @@
         <v>960</v>
       </c>
       <c r="B960">
-        <v>55.83354971745022</v>
+        <v>55.83354971745021</v>
       </c>
     </row>
     <row r="961" spans="1:2">
@@ -8047,7 +8047,7 @@
         <v>963</v>
       </c>
       <c r="B963">
-        <v>72.06030698605159</v>
+        <v>72.06030698605157</v>
       </c>
     </row>
     <row r="964" spans="1:2">
@@ -8111,7 +8111,7 @@
         <v>971</v>
       </c>
       <c r="B971">
-        <v>66.768909383021</v>
+        <v>66.76890938302098</v>
       </c>
     </row>
     <row r="972" spans="1:2">
@@ -8191,7 +8191,7 @@
         <v>981</v>
       </c>
       <c r="B981">
-        <v>60.6868061176821</v>
+        <v>60.68680611768209</v>
       </c>
     </row>
     <row r="982" spans="1:2">
@@ -8223,7 +8223,7 @@
         <v>985</v>
       </c>
       <c r="B985">
-        <v>71.53043454815187</v>
+        <v>71.53043454815186</v>
       </c>
     </row>
     <row r="986" spans="1:2">
@@ -8231,7 +8231,7 @@
         <v>986</v>
       </c>
       <c r="B986">
-        <v>73.85185024538839</v>
+        <v>73.85185024538838</v>
       </c>
     </row>
     <row r="987" spans="1:2">
@@ -8239,7 +8239,7 @@
         <v>987</v>
       </c>
       <c r="B987">
-        <v>75.6706491113207</v>
+        <v>75.67064911132069</v>
       </c>
     </row>
     <row r="988" spans="1:2">
@@ -8295,7 +8295,7 @@
         <v>994</v>
       </c>
       <c r="B994">
-        <v>96.7275101680997</v>
+        <v>96.72751016809968</v>
       </c>
     </row>
     <row r="995" spans="1:2">
@@ -8319,7 +8319,7 @@
         <v>997</v>
       </c>
       <c r="B997">
-        <v>52.08077506739169</v>
+        <v>52.08077506739168</v>
       </c>
     </row>
     <row r="998" spans="1:2">
@@ -8335,7 +8335,7 @@
         <v>999</v>
       </c>
       <c r="B999">
-        <v>56.58234622122996</v>
+        <v>56.58234622122995</v>
       </c>
     </row>
     <row r="1000" spans="1:2">
@@ -8415,7 +8415,7 @@
         <v>1009</v>
       </c>
       <c r="B1009">
-        <v>66.81990374374807</v>
+        <v>66.81990374374806</v>
       </c>
     </row>
     <row r="1010" spans="1:2">
@@ -8519,7 +8519,7 @@
         <v>1022</v>
       </c>
       <c r="B1022">
-        <v>28.98164847770111</v>
+        <v>28.9816484777011</v>
       </c>
     </row>
     <row r="1023" spans="1:2">
@@ -8607,7 +8607,7 @@
         <v>1033</v>
       </c>
       <c r="B1033">
-        <v>48.21340964121658</v>
+        <v>48.21340964121657</v>
       </c>
     </row>
     <row r="1034" spans="1:2">
@@ -8671,7 +8671,7 @@
         <v>1041</v>
       </c>
       <c r="B1041">
-        <v>45.02860666408374</v>
+        <v>45.02860666408373</v>
       </c>
     </row>
     <row r="1042" spans="1:2">
@@ -8703,7 +8703,7 @@
         <v>1045</v>
       </c>
       <c r="B1045">
-        <v>7.004515052421618</v>
+        <v>7.004515052421617</v>
       </c>
     </row>
     <row r="1046" spans="1:2">
@@ -8711,7 +8711,7 @@
         <v>1046</v>
       </c>
       <c r="B1046">
-        <v>1.993574710548389</v>
+        <v>1.993574710548388</v>
       </c>
     </row>
     <row r="1047" spans="1:2">
@@ -8735,7 +8735,7 @@
         <v>1049</v>
       </c>
       <c r="B1049">
-        <v>4.620909680781164</v>
+        <v>4.620909680781163</v>
       </c>
     </row>
     <row r="1050" spans="1:2">
@@ -8999,7 +8999,7 @@
         <v>1082</v>
       </c>
       <c r="B1082">
-        <v>44.06323066273327</v>
+        <v>44.06323066273326</v>
       </c>
     </row>
     <row r="1083" spans="1:2">
@@ -9063,7 +9063,7 @@
         <v>1090</v>
       </c>
       <c r="B1090">
-        <v>53.30082980133887</v>
+        <v>53.30082980133886</v>
       </c>
     </row>
     <row r="1091" spans="1:2">
@@ -9151,7 +9151,7 @@
         <v>1101</v>
       </c>
       <c r="B1101">
-        <v>18.79485085907914</v>
+        <v>18.79485085907913</v>
       </c>
     </row>
     <row r="1102" spans="1:2">
@@ -9351,7 +9351,7 @@
         <v>1126</v>
       </c>
       <c r="B1126">
-        <v>39.82864722511549</v>
+        <v>39.82864722511548</v>
       </c>
     </row>
     <row r="1127" spans="1:2">
@@ -9407,7 +9407,7 @@
         <v>1133</v>
       </c>
       <c r="B1133">
-        <v>50.86277183071514</v>
+        <v>50.86277183071513</v>
       </c>
     </row>
     <row r="1134" spans="1:2">
@@ -9423,7 +9423,7 @@
         <v>1135</v>
       </c>
       <c r="B1135">
-        <v>59.49195549305979</v>
+        <v>59.49195549305978</v>
       </c>
     </row>
     <row r="1136" spans="1:2">
@@ -9439,7 +9439,7 @@
         <v>1137</v>
       </c>
       <c r="B1137">
-        <v>47.36233134494403</v>
+        <v>47.36233134494402</v>
       </c>
     </row>
     <row r="1138" spans="1:2">
@@ -9519,7 +9519,7 @@
         <v>1147</v>
       </c>
       <c r="B1147">
-        <v>25.42930511098308</v>
+        <v>25.42930511098307</v>
       </c>
     </row>
     <row r="1148" spans="1:2">
@@ -9551,7 +9551,7 @@
         <v>1151</v>
       </c>
       <c r="B1151">
-        <v>29.66171982291476</v>
+        <v>29.66171982291475</v>
       </c>
     </row>
     <row r="1152" spans="1:2">
@@ -9591,7 +9591,7 @@
         <v>1156</v>
       </c>
       <c r="B1156">
-        <v>35.05979528401808</v>
+        <v>35.05979528401807</v>
       </c>
     </row>
     <row r="1157" spans="1:2">
@@ -9615,7 +9615,7 @@
         <v>1159</v>
       </c>
       <c r="B1159">
-        <v>64.34872874575561</v>
+        <v>64.34872874575559</v>
       </c>
     </row>
     <row r="1160" spans="1:2">
@@ -9631,7 +9631,7 @@
         <v>1161</v>
       </c>
       <c r="B1161">
-        <v>43.38535735030958</v>
+        <v>43.38535735030957</v>
       </c>
     </row>
     <row r="1162" spans="1:2">
@@ -9951,7 +9951,7 @@
         <v>1201</v>
       </c>
       <c r="B1201">
-        <v>67.47227987580823</v>
+        <v>67.47227987580821</v>
       </c>
     </row>
     <row r="1202" spans="1:2">
@@ -9967,7 +9967,7 @@
         <v>1203</v>
       </c>
       <c r="B1203">
-        <v>61.24715794360259</v>
+        <v>61.24715794360258</v>
       </c>
     </row>
     <row r="1204" spans="1:2">
@@ -9999,7 +9999,7 @@
         <v>1207</v>
       </c>
       <c r="B1207">
-        <v>66.22115961176294</v>
+        <v>66.22115961176293</v>
       </c>
     </row>
     <row r="1208" spans="1:2">
@@ -10023,7 +10023,7 @@
         <v>1210</v>
       </c>
       <c r="B1210">
-        <v>55.06658280927348</v>
+        <v>55.06658280927347</v>
       </c>
     </row>
     <row r="1211" spans="1:2">
@@ -10031,7 +10031,7 @@
         <v>1211</v>
       </c>
       <c r="B1211">
-        <v>37.30647786639595</v>
+        <v>37.30647786639594</v>
       </c>
     </row>
     <row r="1212" spans="1:2">
@@ -10071,7 +10071,7 @@
         <v>1216</v>
       </c>
       <c r="B1216">
-        <v>6.450962474598068</v>
+        <v>6.450962474598067</v>
       </c>
     </row>
     <row r="1217" spans="1:2">
@@ -10079,7 +10079,7 @@
         <v>1217</v>
       </c>
       <c r="B1217">
-        <v>9.058532733983522</v>
+        <v>9.058532733983521</v>
       </c>
     </row>
     <row r="1218" spans="1:2">
@@ -10143,7 +10143,7 @@
         <v>1225</v>
       </c>
       <c r="B1225">
-        <v>40.86055035224209</v>
+        <v>40.86055035224208</v>
       </c>
     </row>
     <row r="1226" spans="1:2">
@@ -10191,7 +10191,7 @@
         <v>1231</v>
       </c>
       <c r="B1231">
-        <v>61.49392375815544</v>
+        <v>61.49392375815543</v>
       </c>
     </row>
     <row r="1232" spans="1:2">
@@ -10199,7 +10199,7 @@
         <v>1232</v>
       </c>
       <c r="B1232">
-        <v>61.4153807197942</v>
+        <v>61.41538071979419</v>
       </c>
     </row>
     <row r="1233" spans="1:2">
@@ -10391,7 +10391,7 @@
         <v>1256</v>
       </c>
       <c r="B1256">
-        <v>68.23397150528906</v>
+        <v>68.23397150528905</v>
       </c>
     </row>
     <row r="1257" spans="1:2">
@@ -10519,7 +10519,7 @@
         <v>1272</v>
       </c>
       <c r="B1272">
-        <v>46.0479077365479</v>
+        <v>46.04790773654789</v>
       </c>
     </row>
     <row r="1273" spans="1:2">
@@ -10551,7 +10551,7 @@
         <v>1276</v>
       </c>
       <c r="B1276">
-        <v>54.42211959525718</v>
+        <v>54.42211959525717</v>
       </c>
     </row>
     <row r="1277" spans="1:2">
@@ -10591,7 +10591,7 @@
         <v>1281</v>
       </c>
       <c r="B1281">
-        <v>55.82065459174912</v>
+        <v>55.82065459174911</v>
       </c>
     </row>
     <row r="1282" spans="1:2">
@@ -10727,7 +10727,7 @@
         <v>1298</v>
       </c>
       <c r="B1298">
-        <v>44.99548963671501</v>
+        <v>44.995489636715</v>
       </c>
     </row>
     <row r="1299" spans="1:2">
@@ -10743,7 +10743,7 @@
         <v>1300</v>
       </c>
       <c r="B1300">
-        <v>49.8464014686376</v>
+        <v>49.84640146863759</v>
       </c>
     </row>
     <row r="1301" spans="1:2">
@@ -10791,7 +10791,7 @@
         <v>1306</v>
       </c>
       <c r="B1306">
-        <v>28.31895624508008</v>
+        <v>28.31895624508007</v>
       </c>
     </row>
     <row r="1307" spans="1:2">
@@ -10799,7 +10799,7 @@
         <v>1307</v>
       </c>
       <c r="B1307">
-        <v>17.06098398015089</v>
+        <v>17.06098398015088</v>
       </c>
     </row>
     <row r="1308" spans="1:2">
@@ -10967,7 +10967,7 @@
         <v>1328</v>
       </c>
       <c r="B1328">
-        <v>70.09907559532986</v>
+        <v>70.09907559532985</v>
       </c>
     </row>
     <row r="1329" spans="1:2">
@@ -10991,7 +10991,7 @@
         <v>1331</v>
       </c>
       <c r="B1331">
-        <v>27.93658646093862</v>
+        <v>27.93658646093861</v>
       </c>
     </row>
     <row r="1332" spans="1:2">
@@ -11023,7 +11023,7 @@
         <v>1335</v>
       </c>
       <c r="B1335">
-        <v>3.395960660488339</v>
+        <v>3.395960660488338</v>
       </c>
     </row>
     <row r="1336" spans="1:2">
@@ -11127,7 +11127,7 @@
         <v>1348</v>
       </c>
       <c r="B1348">
-        <v>37.22764175699605</v>
+        <v>37.22764175699604</v>
       </c>
     </row>
     <row r="1349" spans="1:2">
@@ -11151,7 +11151,7 @@
         <v>1351</v>
       </c>
       <c r="B1351">
-        <v>42.59054869346001</v>
+        <v>42.59054869346</v>
       </c>
     </row>
     <row r="1352" spans="1:2">
@@ -11167,7 +11167,7 @@
         <v>1353</v>
       </c>
       <c r="B1353">
-        <v>34.96542640956913</v>
+        <v>34.96542640956912</v>
       </c>
     </row>
     <row r="1354" spans="1:2">
@@ -11191,7 +11191,7 @@
         <v>1356</v>
       </c>
       <c r="B1356">
-        <v>7.878101204463356</v>
+        <v>7.878101204463355</v>
       </c>
     </row>
     <row r="1357" spans="1:2">
@@ -11303,7 +11303,7 @@
         <v>1370</v>
       </c>
       <c r="B1370">
-        <v>28.25237050509622</v>
+        <v>28.25237050509621</v>
       </c>
     </row>
     <row r="1371" spans="1:2">
@@ -11311,7 +11311,7 @@
         <v>1371</v>
       </c>
       <c r="B1371">
-        <v>30.33050793313995</v>
+        <v>30.33050793313994</v>
       </c>
     </row>
     <row r="1372" spans="1:2">
@@ -11327,7 +11327,7 @@
         <v>1373</v>
       </c>
       <c r="B1373">
-        <v>35.4826967928064</v>
+        <v>35.48269679280639</v>
       </c>
     </row>
     <row r="1374" spans="1:2">
@@ -11359,7 +11359,7 @@
         <v>1377</v>
       </c>
       <c r="B1377">
-        <v>32.49923361923391</v>
+        <v>32.4992336192339</v>
       </c>
     </row>
     <row r="1378" spans="1:2">
@@ -11495,7 +11495,7 @@
         <v>1394</v>
       </c>
       <c r="B1394">
-        <v>36.03044656406446</v>
+        <v>36.03044656406445</v>
       </c>
     </row>
     <row r="1395" spans="1:2">
@@ -11527,7 +11527,7 @@
         <v>1398</v>
       </c>
       <c r="B1398">
-        <v>48.59029899693507</v>
+        <v>48.59029899693506</v>
       </c>
     </row>
     <row r="1399" spans="1:2">
@@ -11591,7 +11591,7 @@
         <v>1406</v>
       </c>
       <c r="B1406">
-        <v>0.6525754203664443</v>
+        <v>0.6525754203664442</v>
       </c>
     </row>
     <row r="1407" spans="1:2">
@@ -11695,7 +11695,7 @@
         <v>1419</v>
       </c>
       <c r="B1419">
-        <v>74.48048762331698</v>
+        <v>74.48048762331696</v>
       </c>
     </row>
     <row r="1420" spans="1:2">
@@ -11703,7 +11703,7 @@
         <v>1420</v>
       </c>
       <c r="B1420">
-        <v>81.01567871442631</v>
+        <v>81.0156787144263</v>
       </c>
     </row>
     <row r="1421" spans="1:2">
@@ -11751,7 +11751,7 @@
         <v>1426</v>
       </c>
       <c r="B1426">
-        <v>87.46353463601457</v>
+        <v>87.46353463601456</v>
       </c>
     </row>
     <row r="1427" spans="1:2">
@@ -11783,7 +11783,7 @@
         <v>1430</v>
       </c>
       <c r="B1430">
-        <v>51.26545143783583</v>
+        <v>51.26545143783582</v>
       </c>
     </row>
     <row r="1431" spans="1:2">
@@ -11799,7 +11799,7 @@
         <v>1432</v>
       </c>
       <c r="B1432">
-        <v>41.39071586118046</v>
+        <v>41.39071586118045</v>
       </c>
     </row>
     <row r="1433" spans="1:2">
@@ -11823,7 +11823,7 @@
         <v>1435</v>
       </c>
       <c r="B1435">
-        <v>55.20374005536699</v>
+        <v>55.20374005536698</v>
       </c>
     </row>
     <row r="1436" spans="1:2">
@@ -11927,7 +11927,7 @@
         <v>1448</v>
       </c>
       <c r="B1448">
-        <v>73.60479135979688</v>
+        <v>73.60479135979686</v>
       </c>
     </row>
     <row r="1449" spans="1:2">
@@ -11959,7 +11959,7 @@
         <v>1452</v>
       </c>
       <c r="B1452">
-        <v>38.43802514666741</v>
+        <v>38.4380251466674</v>
       </c>
     </row>
     <row r="1453" spans="1:2">
@@ -12015,7 +12015,7 @@
         <v>1459</v>
       </c>
       <c r="B1459">
-        <v>40.49890069053399</v>
+        <v>40.49890069053398</v>
       </c>
     </row>
     <row r="1460" spans="1:2">
@@ -12055,7 +12055,7 @@
         <v>1464</v>
       </c>
       <c r="B1464">
-        <v>56.86779741288611</v>
+        <v>56.8677974128861</v>
       </c>
     </row>
     <row r="1465" spans="1:2">
@@ -12063,7 +12063,7 @@
         <v>1465</v>
       </c>
       <c r="B1465">
-        <v>59.06377870557557</v>
+        <v>59.06377870557556</v>
       </c>
     </row>
     <row r="1466" spans="1:2">
@@ -12087,7 +12087,7 @@
         <v>1468</v>
       </c>
       <c r="B1468">
-        <v>68.37376639073052</v>
+        <v>68.37376639073051</v>
       </c>
     </row>
     <row r="1469" spans="1:2">
@@ -12111,7 +12111,7 @@
         <v>1471</v>
       </c>
       <c r="B1471">
-        <v>82.86818074980468</v>
+        <v>82.86818074980467</v>
       </c>
     </row>
     <row r="1472" spans="1:2">
@@ -12135,7 +12135,7 @@
         <v>1474</v>
       </c>
       <c r="B1474">
-        <v>50.778953513658</v>
+        <v>50.77895351365799</v>
       </c>
     </row>
     <row r="1475" spans="1:2">
@@ -12207,7 +12207,7 @@
         <v>1483</v>
       </c>
       <c r="B1483">
-        <v>42.79159542598169</v>
+        <v>42.79159542598168</v>
       </c>
     </row>
     <row r="1484" spans="1:2">
@@ -12223,7 +12223,7 @@
         <v>1485</v>
       </c>
       <c r="B1485">
-        <v>47.31368155252625</v>
+        <v>47.31368155252624</v>
       </c>
     </row>
     <row r="1486" spans="1:2">
@@ -12311,7 +12311,7 @@
         <v>1496</v>
       </c>
       <c r="B1496">
-        <v>90.32683868373591</v>
+        <v>90.3268386837359</v>
       </c>
     </row>
     <row r="1497" spans="1:2">
@@ -12375,7 +12375,7 @@
         <v>1504</v>
       </c>
       <c r="B1504">
-        <v>18.3144195054016</v>
+        <v>18.31441950540159</v>
       </c>
     </row>
     <row r="1505" spans="1:2">
@@ -12415,7 +12415,7 @@
         <v>1509</v>
       </c>
       <c r="B1509">
-        <v>25.88983694113552</v>
+        <v>25.88983694113551</v>
       </c>
     </row>
     <row r="1510" spans="1:2">
@@ -12431,7 +12431,7 @@
         <v>1511</v>
       </c>
       <c r="B1511">
-        <v>29.05306988982288</v>
+        <v>29.05306988982287</v>
       </c>
     </row>
     <row r="1512" spans="1:2">
@@ -12463,7 +12463,7 @@
         <v>1515</v>
       </c>
       <c r="B1515">
-        <v>32.41248459179015</v>
+        <v>32.41248459179014</v>
       </c>
     </row>
     <row r="1516" spans="1:2">
@@ -12495,7 +12495,7 @@
         <v>1519</v>
       </c>
       <c r="B1519">
-        <v>35.37572586369501</v>
+        <v>35.375725863695</v>
       </c>
     </row>
     <row r="1520" spans="1:2">
@@ -12551,7 +12551,7 @@
         <v>1526</v>
       </c>
       <c r="B1526">
-        <v>0.4934466385044937</v>
+        <v>0.4934466385044936</v>
       </c>
     </row>
     <row r="1527" spans="1:2">
@@ -12583,7 +12583,7 @@
         <v>1530</v>
       </c>
       <c r="B1530">
-        <v>7.34195704633629</v>
+        <v>7.341957046336289</v>
       </c>
     </row>
     <row r="1531" spans="1:2">
@@ -12615,7 +12615,7 @@
         <v>1534</v>
       </c>
       <c r="B1534">
-        <v>28.84425677477667</v>
+        <v>28.84425677477666</v>
       </c>
     </row>
     <row r="1535" spans="1:2">
@@ -12623,7 +12623,7 @@
         <v>1535</v>
       </c>
       <c r="B1535">
-        <v>31.29090172683318</v>
+        <v>31.29090172683317</v>
       </c>
     </row>
     <row r="1536" spans="1:2">
@@ -12679,7 +12679,7 @@
         <v>1542</v>
       </c>
       <c r="B1542">
-        <v>51.47441108840137</v>
+        <v>51.47441108840136</v>
       </c>
     </row>
     <row r="1543" spans="1:2">
@@ -12703,7 +12703,7 @@
         <v>1545</v>
       </c>
       <c r="B1545">
-        <v>37.16404534160654</v>
+        <v>37.16404534160653</v>
       </c>
     </row>
     <row r="1546" spans="1:2">
@@ -12727,7 +12727,7 @@
         <v>1548</v>
       </c>
       <c r="B1548">
-        <v>17.6368978782243</v>
+        <v>17.63689787822429</v>
       </c>
     </row>
     <row r="1549" spans="1:2">
@@ -12759,7 +12759,7 @@
         <v>1552</v>
       </c>
       <c r="B1552">
-        <v>5.252389847784765</v>
+        <v>5.252389847784764</v>
       </c>
     </row>
     <row r="1553" spans="1:2">
@@ -12831,7 +12831,7 @@
         <v>1561</v>
       </c>
       <c r="B1561">
-        <v>43.43635171103665</v>
+        <v>43.43635171103664</v>
       </c>
     </row>
     <row r="1562" spans="1:2">
@@ -12839,7 +12839,7 @@
         <v>1562</v>
       </c>
       <c r="B1562">
-        <v>45.71908203116987</v>
+        <v>45.71908203116986</v>
       </c>
     </row>
     <row r="1563" spans="1:2">
@@ -12895,7 +12895,7 @@
         <v>1569</v>
       </c>
       <c r="B1569">
-        <v>39.74717347636764</v>
+        <v>39.74717347636763</v>
       </c>
     </row>
     <row r="1570" spans="1:2">
@@ -12927,7 +12927,7 @@
         <v>1573</v>
       </c>
       <c r="B1573">
-        <v>11.25275560044102</v>
+        <v>11.25275560044101</v>
       </c>
     </row>
     <row r="1574" spans="1:2">
@@ -13199,7 +13199,7 @@
         <v>1607</v>
       </c>
       <c r="B1607">
-        <v>37.33197504675949</v>
+        <v>37.33197504675948</v>
       </c>
     </row>
     <row r="1608" spans="1:2">
@@ -13231,7 +13231,7 @@
         <v>1611</v>
       </c>
       <c r="B1611">
-        <v>48.29459031892577</v>
+        <v>48.29459031892576</v>
       </c>
     </row>
     <row r="1612" spans="1:2">
@@ -13519,7 +13519,7 @@
         <v>1647</v>
       </c>
       <c r="B1647">
-        <v>0.5045833379736249</v>
+        <v>0.5045833379736248</v>
       </c>
     </row>
     <row r="1648" spans="1:2">
@@ -13943,7 +13943,7 @@
         <v>1700</v>
       </c>
       <c r="B1700">
-        <v>10.78343163912874</v>
+        <v>10.78343163912873</v>
       </c>
     </row>
     <row r="1701" spans="1:2">
@@ -13991,7 +13991,7 @@
         <v>1706</v>
       </c>
       <c r="B1706">
-        <v>25.24203271727848</v>
+        <v>25.24203271727847</v>
       </c>
     </row>
     <row r="1707" spans="1:2">
@@ -14047,7 +14047,7 @@
         <v>1713</v>
       </c>
       <c r="B1713">
-        <v>20.8807546696474</v>
+        <v>20.88075466964739</v>
       </c>
     </row>
     <row r="1714" spans="1:2">
@@ -14167,7 +14167,7 @@
         <v>1728</v>
       </c>
       <c r="B1728">
-        <v>20.82366443131617</v>
+        <v>20.82366443131616</v>
       </c>
     </row>
     <row r="1729" spans="1:2">
@@ -14215,7 +14215,7 @@
         <v>1734</v>
       </c>
       <c r="B1734">
-        <v>29.66552974641736</v>
+        <v>29.66552974641735</v>
       </c>
     </row>
     <row r="1735" spans="1:2">
@@ -14335,7 +14335,7 @@
         <v>1749</v>
       </c>
       <c r="B1749">
-        <v>7.975840395856914</v>
+        <v>7.975840395856913</v>
       </c>
     </row>
     <row r="1750" spans="1:2">
@@ -14383,7 +14383,7 @@
         <v>1755</v>
       </c>
       <c r="B1755">
-        <v>37.01633753812122</v>
+        <v>37.01633753812121</v>
       </c>
     </row>
     <row r="1756" spans="1:2">
@@ -14415,7 +14415,7 @@
         <v>1759</v>
       </c>
       <c r="B1759">
-        <v>48.47541514977982</v>
+        <v>48.47541514977981</v>
       </c>
     </row>
     <row r="1760" spans="1:2">
@@ -14447,7 +14447,7 @@
         <v>1763</v>
       </c>
       <c r="B1763">
-        <v>5.677489389363046</v>
+        <v>5.677489389363045</v>
       </c>
     </row>
     <row r="1764" spans="1:2">
@@ -14591,7 +14591,7 @@
         <v>1781</v>
       </c>
       <c r="B1781">
-        <v>38.60361028351107</v>
+        <v>38.60361028351106</v>
       </c>
     </row>
     <row r="1782" spans="1:2">
@@ -14711,7 +14711,7 @@
         <v>1796</v>
       </c>
       <c r="B1796">
-        <v>14.25951792158709</v>
+        <v>14.25951792158708</v>
       </c>
     </row>
     <row r="1797" spans="1:2">
@@ -14775,7 +14775,7 @@
         <v>1804</v>
       </c>
       <c r="B1804">
-        <v>37.26837863136998</v>
+        <v>37.26837863136997</v>
       </c>
     </row>
     <row r="1805" spans="1:2">
@@ -14791,7 +14791,7 @@
         <v>1806</v>
       </c>
       <c r="B1806">
-        <v>48.10849020937582</v>
+        <v>48.10849020937581</v>
       </c>
     </row>
     <row r="1807" spans="1:2">
@@ -14807,7 +14807,7 @@
         <v>1808</v>
       </c>
       <c r="B1808">
-        <v>45.54089483966377</v>
+        <v>45.54089483966376</v>
       </c>
     </row>
     <row r="1809" spans="1:2">
@@ -14823,7 +14823,7 @@
         <v>1810</v>
       </c>
       <c r="B1810">
-        <v>31.53297840476745</v>
+        <v>31.53297840476744</v>
       </c>
     </row>
     <row r="1811" spans="1:2">
@@ -14831,7 +14831,7 @@
         <v>1811</v>
       </c>
       <c r="B1811">
-        <v>26.85688344740636</v>
+        <v>26.85688344740635</v>
       </c>
     </row>
     <row r="1812" spans="1:2">
@@ -14943,7 +14943,7 @@
         <v>1825</v>
       </c>
       <c r="B1825">
-        <v>40.21872477757374</v>
+        <v>40.21872477757373</v>
       </c>
     </row>
     <row r="1826" spans="1:2">
@@ -15015,7 +15015,7 @@
         <v>1834</v>
       </c>
       <c r="B1834">
-        <v>41.52552853896468</v>
+        <v>41.52552853896467</v>
       </c>
     </row>
     <row r="1835" spans="1:2">
@@ -15223,7 +15223,7 @@
         <v>1860</v>
       </c>
       <c r="B1860">
-        <v>4.227696268209237</v>
+        <v>4.227696268209236</v>
       </c>
     </row>
     <row r="1861" spans="1:2">
@@ -15479,7 +15479,7 @@
         <v>1892</v>
       </c>
       <c r="B1892">
-        <v>2.296460698294503</v>
+        <v>2.296460698294502</v>
       </c>
     </row>
     <row r="1893" spans="1:2">
@@ -15567,7 +15567,7 @@
         <v>1903</v>
       </c>
       <c r="B1903">
-        <v>43.17639769974404</v>
+        <v>43.17639769974403</v>
       </c>
     </row>
     <row r="1904" spans="1:2">
@@ -15607,7 +15607,7 @@
         <v>1908</v>
       </c>
       <c r="B1908">
-        <v>9.707538549099072</v>
+        <v>9.70753854909907</v>
       </c>
     </row>
     <row r="1909" spans="1:2">
@@ -15647,7 +15647,7 @@
         <v>1913</v>
       </c>
       <c r="B1913">
-        <v>2.647870457911776</v>
+        <v>2.647870457911775</v>
       </c>
     </row>
     <row r="1914" spans="1:2">
@@ -15655,7 +15655,7 @@
         <v>1914</v>
       </c>
       <c r="B1914">
-        <v>7.87420335964916</v>
+        <v>7.874203359649159</v>
       </c>
     </row>
     <row r="1915" spans="1:2">
@@ -15703,7 +15703,7 @@
         <v>1920</v>
       </c>
       <c r="B1920">
-        <v>33.95140061580087</v>
+        <v>33.95140061580086</v>
       </c>
     </row>
     <row r="1921" spans="1:2">
@@ -15711,7 +15711,7 @@
         <v>1921</v>
       </c>
       <c r="B1921">
-        <v>37.46444315623442</v>
+        <v>37.46444315623441</v>
       </c>
     </row>
     <row r="1922" spans="1:2">
@@ -15919,7 +15919,7 @@
         <v>1947</v>
       </c>
       <c r="B1947">
-        <v>43.75755756940949</v>
+        <v>43.75755756940948</v>
       </c>
     </row>
     <row r="1948" spans="1:2">
@@ -15935,7 +15935,7 @@
         <v>1949</v>
       </c>
       <c r="B1949">
-        <v>49.12779128183998</v>
+        <v>49.12779128183997</v>
       </c>
     </row>
     <row r="1950" spans="1:2">
@@ -15943,7 +15943,7 @@
         <v>1950</v>
       </c>
       <c r="B1950">
-        <v>51.05150957961305</v>
+        <v>51.05150957961304</v>
       </c>
     </row>
     <row r="1951" spans="1:2">
@@ -15951,7 +15951,7 @@
         <v>1951</v>
       </c>
       <c r="B1951">
-        <v>54.57480960639974</v>
+        <v>54.57480960639973</v>
       </c>
     </row>
     <row r="1952" spans="1:2">
@@ -16015,7 +16015,7 @@
         <v>1959</v>
       </c>
       <c r="B1959">
-        <v>0.218628064130977</v>
+        <v>0.2186280641309769</v>
       </c>
     </row>
     <row r="1960" spans="1:2">
@@ -16119,7 +16119,7 @@
         <v>1972</v>
       </c>
       <c r="B1972">
-        <v>41.08738733616597</v>
+        <v>41.08738733616596</v>
       </c>
     </row>
     <row r="1973" spans="1:2">
@@ -16263,7 +16263,7 @@
         <v>1990</v>
       </c>
       <c r="B1990">
-        <v>5.089207893458127</v>
+        <v>5.089207893458126</v>
       </c>
     </row>
     <row r="1991" spans="1:2">
@@ -16271,7 +16271,7 @@
         <v>1991</v>
       </c>
       <c r="B1991">
-        <v>8.846994058277764</v>
+        <v>8.846994058277762</v>
       </c>
     </row>
     <row r="1992" spans="1:2">
@@ -16327,7 +16327,7 @@
         <v>1998</v>
       </c>
       <c r="B1998">
-        <v>46.53176802137778</v>
+        <v>46.53176802137777</v>
       </c>
     </row>
     <row r="1999" spans="1:2">
@@ -16431,7 +16431,7 @@
         <v>2011</v>
       </c>
       <c r="B2011">
-        <v>4.435952548281989</v>
+        <v>4.435952548281988</v>
       </c>
     </row>
     <row r="2012" spans="1:2">
@@ -16439,7 +16439,7 @@
         <v>2012</v>
       </c>
       <c r="B2012">
-        <v>7.889618896282746</v>
+        <v>7.889618896282745</v>
       </c>
     </row>
     <row r="2013" spans="1:2">
@@ -16519,7 +16519,7 @@
         <v>2022</v>
       </c>
       <c r="B2022">
-        <v>28.98317244710215</v>
+        <v>28.98317244710214</v>
       </c>
     </row>
     <row r="2023" spans="1:2">
@@ -16551,7 +16551,7 @@
         <v>2026</v>
       </c>
       <c r="B2026">
-        <v>16.51206192473819</v>
+        <v>16.51206192473818</v>
       </c>
     </row>
     <row r="2027" spans="1:2">
@@ -16711,7 +16711,7 @@
         <v>2046</v>
       </c>
       <c r="B2046">
-        <v>21.33697835553152</v>
+        <v>21.33697835553151</v>
       </c>
     </row>
     <row r="2047" spans="1:2">
@@ -17479,7 +17479,7 @@
         <v>2142</v>
       </c>
       <c r="B2142">
-        <v>54.9185819347495</v>
+        <v>54.91858193474949</v>
       </c>
     </row>
     <row r="2143" spans="1:2">
@@ -17687,7 +17687,7 @@
         <v>2168</v>
       </c>
       <c r="B2168">
-        <v>40.63898864701411</v>
+        <v>40.6389886470141</v>
       </c>
     </row>
     <row r="2169" spans="1:2">
@@ -17703,7 +17703,7 @@
         <v>2170</v>
       </c>
       <c r="B2170">
-        <v>13.59755836656271</v>
+        <v>13.5975583665627</v>
       </c>
     </row>
     <row r="2171" spans="1:2">
@@ -17719,7 +17719,7 @@
         <v>2172</v>
       </c>
       <c r="B2172">
-        <v>1.658515384178033</v>
+        <v>1.658515384178032</v>
       </c>
     </row>
     <row r="2173" spans="1:2">
@@ -17855,7 +17855,7 @@
         <v>2189</v>
       </c>
       <c r="B2189">
-        <v>34.77698173170988</v>
+        <v>34.77698173170987</v>
       </c>
     </row>
     <row r="2190" spans="1:2">
@@ -17863,7 +17863,7 @@
         <v>2190</v>
       </c>
       <c r="B2190">
-        <v>38.37911786789648</v>
+        <v>38.37911786789647</v>
       </c>
     </row>
     <row r="2191" spans="1:2">
@@ -17967,7 +17967,7 @@
         <v>2203</v>
       </c>
       <c r="B2203">
-        <v>8.303230053145503</v>
+        <v>8.303230053145501</v>
       </c>
     </row>
     <row r="2204" spans="1:2">
@@ -18007,7 +18007,7 @@
         <v>2208</v>
       </c>
       <c r="B2208">
-        <v>27.88213386195534</v>
+        <v>27.88213386195533</v>
       </c>
     </row>
     <row r="2209" spans="1:2">
@@ -18023,7 +18023,7 @@
         <v>2210</v>
       </c>
       <c r="B2210">
-        <v>33.75533609093643</v>
+        <v>33.75533609093642</v>
       </c>
     </row>
     <row r="2211" spans="1:2">
@@ -18111,7 +18111,7 @@
         <v>2221</v>
       </c>
       <c r="B2221">
-        <v>4.040130803465976</v>
+        <v>4.040130803465975</v>
       </c>
     </row>
     <row r="2222" spans="1:2">
@@ -18223,7 +18223,7 @@
         <v>2235</v>
       </c>
       <c r="B2235">
-        <v>46.20059774769046</v>
+        <v>46.20059774769045</v>
       </c>
     </row>
     <row r="2236" spans="1:2">
@@ -18247,7 +18247,7 @@
         <v>2238</v>
       </c>
       <c r="B2238">
-        <v>51.28303570015551</v>
+        <v>51.2830357001555</v>
       </c>
     </row>
     <row r="2239" spans="1:2">
@@ -18255,7 +18255,7 @@
         <v>2239</v>
       </c>
       <c r="B2239">
-        <v>48.3353271932997</v>
+        <v>48.33532719329969</v>
       </c>
     </row>
     <row r="2240" spans="1:2">
@@ -18263,7 +18263,7 @@
         <v>2240</v>
       </c>
       <c r="B2240">
-        <v>40.33859083238623</v>
+        <v>40.33859083238622</v>
       </c>
     </row>
     <row r="2241" spans="1:2">
@@ -18311,7 +18311,7 @@
         <v>2246</v>
       </c>
       <c r="B2246">
-        <v>9.173768266385164</v>
+        <v>9.173768266385162</v>
       </c>
     </row>
     <row r="2247" spans="1:2">
@@ -18327,7 +18327,7 @@
         <v>2248</v>
       </c>
       <c r="B2248">
-        <v>5.993126898001315</v>
+        <v>5.993126898001314</v>
       </c>
     </row>
     <row r="2249" spans="1:2">
@@ -18367,7 +18367,7 @@
         <v>2253</v>
       </c>
       <c r="B2253">
-        <v>27.772525293496</v>
+        <v>27.77252529349599</v>
       </c>
     </row>
     <row r="2254" spans="1:2">
@@ -18415,7 +18415,7 @@
         <v>2259</v>
       </c>
       <c r="B2259">
-        <v>50.00671132678535</v>
+        <v>50.00671132678534</v>
       </c>
     </row>
     <row r="2260" spans="1:2">
@@ -18431,7 +18431,7 @@
         <v>2261</v>
       </c>
       <c r="B2261">
-        <v>52.60273458724755</v>
+        <v>52.60273458724754</v>
       </c>
     </row>
     <row r="2262" spans="1:2">
@@ -18559,7 +18559,7 @@
         <v>2277</v>
       </c>
       <c r="B2277">
-        <v>14.95682184387403</v>
+        <v>14.95682184387402</v>
       </c>
     </row>
     <row r="2278" spans="1:2">
@@ -18591,7 +18591,7 @@
         <v>2281</v>
       </c>
       <c r="B2281">
-        <v>24.00990345653845</v>
+        <v>24.00990345653844</v>
       </c>
     </row>
     <row r="2282" spans="1:2">
@@ -19383,7 +19383,7 @@
         <v>2380</v>
       </c>
       <c r="B2380">
-        <v>4.18915742662527</v>
+        <v>4.189157426625269</v>
       </c>
     </row>
     <row r="2381" spans="1:2">
@@ -19391,7 +19391,7 @@
         <v>2381</v>
       </c>
       <c r="B2381">
-        <v>6.052034176772246</v>
+        <v>6.052034176772245</v>
       </c>
     </row>
     <row r="2382" spans="1:2">
@@ -19599,7 +19599,7 @@
         <v>2407</v>
       </c>
       <c r="B2407">
-        <v>31.34570601106285</v>
+        <v>31.34570601106284</v>
       </c>
     </row>
     <row r="2408" spans="1:2">
@@ -19719,7 +19719,7 @@
         <v>2422</v>
       </c>
       <c r="B2422">
-        <v>3.671740507868665</v>
+        <v>3.671740507868664</v>
       </c>
     </row>
     <row r="2423" spans="1:2">
@@ -19767,7 +19767,7 @@
         <v>2428</v>
       </c>
       <c r="B2428">
-        <v>35.61750947059062</v>
+        <v>35.61750947059061</v>
       </c>
     </row>
     <row r="2429" spans="1:2">
@@ -21127,7 +21127,7 @@
         <v>2598</v>
       </c>
       <c r="B2598">
-        <v>4.660122585754052</v>
+        <v>4.660122585754051</v>
       </c>
     </row>
     <row r="2599" spans="1:2">
@@ -21487,7 +21487,7 @@
         <v>2643</v>
       </c>
       <c r="B2643">
-        <v>27.80479241485261</v>
+        <v>27.8047924148526</v>
       </c>
     </row>
     <row r="2644" spans="1:2">
@@ -21647,7 +21647,7 @@
         <v>2663</v>
       </c>
       <c r="B2663">
-        <v>8.127270201533232</v>
+        <v>8.12727020153323</v>
       </c>
     </row>
     <row r="2664" spans="1:2">
@@ -21679,7 +21679,7 @@
         <v>2667</v>
       </c>
       <c r="B2667">
-        <v>28.22769392364093</v>
+        <v>28.22769392364092</v>
       </c>
     </row>
     <row r="2668" spans="1:2">
@@ -21735,7 +21735,7 @@
         <v>2674</v>
       </c>
       <c r="B2674">
-        <v>12.48872409178751</v>
+        <v>12.4887240917875</v>
       </c>
     </row>
     <row r="2675" spans="1:2">
@@ -21871,7 +21871,7 @@
         <v>2691</v>
       </c>
       <c r="B2691">
-        <v>19.88724384858544</v>
+        <v>19.88724384858543</v>
       </c>
     </row>
     <row r="2692" spans="1:2">
@@ -22855,7 +22855,7 @@
         <v>2814</v>
       </c>
       <c r="B2814">
-        <v>3.845648862210307</v>
+        <v>3.845648862210306</v>
       </c>
     </row>
     <row r="2815" spans="1:2">
@@ -23039,7 +23039,7 @@
         <v>2837</v>
       </c>
       <c r="B2837">
-        <v>32.10944913781432</v>
+        <v>32.10944913781431</v>
       </c>
     </row>
     <row r="2838" spans="1:2">
@@ -23407,7 +23407,7 @@
         <v>2883</v>
       </c>
       <c r="B2883">
-        <v>19.01863990420095</v>
+        <v>19.01863990420094</v>
       </c>
     </row>
     <row r="2884" spans="1:2">
@@ -27087,7 +27087,7 @@
         <v>3343</v>
       </c>
       <c r="B3343">
-        <v>8.065051220025428</v>
+        <v>8.065051220025426</v>
       </c>
     </row>
     <row r="3344" spans="1:2">
@@ -27839,7 +27839,7 @@
         <v>3437</v>
       </c>
       <c r="B3437">
-        <v>8.546566936546018</v>
+        <v>8.546566936546016</v>
       </c>
     </row>
     <row r="3438" spans="1:2">
@@ -27863,7 +27863,7 @@
         <v>3440</v>
       </c>
       <c r="B3440">
-        <v>0.6266767326799413</v>
+        <v>0.6266767326799412</v>
       </c>
     </row>
     <row r="3441" spans="1:2">
@@ -28031,7 +28031,7 @@
         <v>3461</v>
       </c>
       <c r="B3461">
-        <v>23.52035759355854</v>
+        <v>23.52035759355853</v>
       </c>
     </row>
     <row r="3462" spans="1:2">
@@ -50895,7 +50895,7 @@
         <v>6319</v>
       </c>
       <c r="B6319">
-        <v>12.20972046298191</v>
+        <v>12.2097204629819</v>
       </c>
     </row>
     <row r="6320" spans="1:2">
@@ -53207,7 +53207,7 @@
         <v>6608</v>
       </c>
       <c r="B6608">
-        <v>27.02267373397708</v>
+        <v>27.02267373397707</v>
       </c>
     </row>
     <row r="6609" spans="1:2">
@@ -53415,7 +53415,7 @@
         <v>6634</v>
       </c>
       <c r="B6634">
-        <v>0.6326846889724989</v>
+        <v>0.6326846889724987</v>
       </c>
     </row>
     <row r="6635" spans="1:2">
@@ -54519,7 +54519,7 @@
         <v>6772</v>
       </c>
       <c r="B6772">
-        <v>5.813005437640052</v>
+        <v>5.813005437640051</v>
       </c>
     </row>
     <row r="6773" spans="1:2">
@@ -54687,7 +54687,7 @@
         <v>6793</v>
       </c>
       <c r="B6793">
-        <v>7.185603647210463</v>
+        <v>7.185603647210462</v>
       </c>
     </row>
     <row r="6794" spans="1:2">
@@ -54767,7 +54767,7 @@
         <v>6803</v>
       </c>
       <c r="B6803">
-        <v>0.4795726555342656</v>
+        <v>0.4795726555342655</v>
       </c>
     </row>
     <row r="6804" spans="1:2">
@@ -54903,7 +54903,7 @@
         <v>6820</v>
       </c>
       <c r="B6820">
-        <v>31.86795860195737</v>
+        <v>31.86795860195736</v>
       </c>
     </row>
     <row r="6821" spans="1:2">
@@ -54943,7 +54943,7 @@
         <v>6825</v>
       </c>
       <c r="B6825">
-        <v>21.37141420257423</v>
+        <v>21.37141420257422</v>
       </c>
     </row>
     <row r="6826" spans="1:2">
@@ -54967,7 +54967,7 @@
         <v>6828</v>
       </c>
       <c r="B6828">
-        <v>0.7910221790300639</v>
+        <v>0.7910221790300638</v>
       </c>
     </row>
     <row r="6829" spans="1:2">
@@ -55647,7 +55647,7 @@
         <v>6913</v>
       </c>
       <c r="B6913">
-        <v>14.38243191520166</v>
+        <v>14.38243191520165</v>
       </c>
     </row>
     <row r="6914" spans="1:2">
@@ -55727,7 +55727,7 @@
         <v>6923</v>
       </c>
       <c r="B6923">
-        <v>0.3644777972311821</v>
+        <v>0.364477797231182</v>
       </c>
     </row>
     <row r="6924" spans="1:2">
@@ -55855,7 +55855,7 @@
         <v>6939</v>
       </c>
       <c r="B6939">
-        <v>23.57044343406576</v>
+        <v>23.57044343406575</v>
       </c>
     </row>
     <row r="6940" spans="1:2">
@@ -57767,7 +57767,7 @@
         <v>7178</v>
       </c>
       <c r="B7178">
-        <v>28.26028342314008</v>
+        <v>28.26028342314007</v>
       </c>
     </row>
     <row r="7179" spans="1:2">
@@ -57791,7 +57791,7 @@
         <v>7181</v>
       </c>
       <c r="B7181">
-        <v>40.14457780479242</v>
+        <v>40.14457780479241</v>
       </c>
     </row>
     <row r="7182" spans="1:2">
@@ -57999,7 +57999,7 @@
         <v>7207</v>
       </c>
       <c r="B7207">
-        <v>45.57137422768455</v>
+        <v>45.57137422768454</v>
       </c>
     </row>
     <row r="7208" spans="1:2">
@@ -58175,7 +58175,7 @@
         <v>7229</v>
       </c>
       <c r="B7229">
-        <v>26.84647942553388</v>
+        <v>26.84647942553387</v>
       </c>
     </row>
     <row r="7230" spans="1:2">
@@ -58191,7 +58191,7 @@
         <v>7231</v>
       </c>
       <c r="B7231">
-        <v>32.68269608943591</v>
+        <v>32.6826960894359</v>
       </c>
     </row>
     <row r="7232" spans="1:2">
@@ -58519,7 +58519,7 @@
         <v>7272</v>
       </c>
       <c r="B7272">
-        <v>26.12989142890302</v>
+        <v>26.12989142890301</v>
       </c>
     </row>
     <row r="7273" spans="1:2">
@@ -58535,7 +58535,7 @@
         <v>7274</v>
       </c>
       <c r="B7274">
-        <v>32.74629250482542</v>
+        <v>32.74629250482541</v>
       </c>
     </row>
     <row r="7275" spans="1:2">
@@ -58791,7 +58791,7 @@
         <v>7306</v>
       </c>
       <c r="B7306">
-        <v>6.936874256698578</v>
+        <v>6.936874256698577</v>
       </c>
     </row>
     <row r="7307" spans="1:2">
@@ -58895,7 +58895,7 @@
         <v>7319</v>
       </c>
       <c r="B7319">
-        <v>27.1116207942108</v>
+        <v>27.11162079421079</v>
       </c>
     </row>
     <row r="7320" spans="1:2">
@@ -58903,7 +58903,7 @@
         <v>7320</v>
       </c>
       <c r="B7320">
-        <v>30.76601149659071</v>
+        <v>30.7660114965907</v>
       </c>
     </row>
     <row r="7321" spans="1:2">
@@ -58943,7 +58943,7 @@
         <v>7325</v>
       </c>
       <c r="B7325">
-        <v>46.71493742054112</v>
+        <v>46.71493742054111</v>
       </c>
     </row>
     <row r="7326" spans="1:2">
@@ -59143,7 +59143,7 @@
         <v>7350</v>
       </c>
       <c r="B7350">
-        <v>62.11816507050411</v>
+        <v>62.1181650705041</v>
       </c>
     </row>
     <row r="7351" spans="1:2">
@@ -59271,7 +59271,7 @@
         <v>7366</v>
       </c>
       <c r="B7366">
-        <v>8.982011885789046</v>
+        <v>8.982011885789044</v>
       </c>
     </row>
     <row r="7367" spans="1:2">
@@ -59319,7 +59319,7 @@
         <v>7372</v>
       </c>
       <c r="B7372">
-        <v>26.53942889832839</v>
+        <v>26.53942889832838</v>
       </c>
     </row>
     <row r="7373" spans="1:2">
@@ -59343,7 +59343,7 @@
         <v>7375</v>
       </c>
       <c r="B7375">
-        <v>58.32230897776236</v>
+        <v>58.32230897776235</v>
       </c>
     </row>
     <row r="7376" spans="1:2">
@@ -59359,7 +59359,7 @@
         <v>7377</v>
       </c>
       <c r="B7377">
-        <v>44.69978095870571</v>
+        <v>44.6997809587057</v>
       </c>
     </row>
     <row r="7378" spans="1:2">
@@ -59375,7 +59375,7 @@
         <v>7379</v>
       </c>
       <c r="B7379">
-        <v>20.42168819468827</v>
+        <v>20.42168819468826</v>
       </c>
     </row>
     <row r="7380" spans="1:2">
@@ -59519,7 +59519,7 @@
         <v>7397</v>
       </c>
       <c r="B7397">
-        <v>38.51686125606731</v>
+        <v>38.5168612560673</v>
       </c>
     </row>
     <row r="7398" spans="1:2">
@@ -59703,7 +59703,7 @@
         <v>7420</v>
       </c>
       <c r="B7420">
-        <v>17.16393983603262</v>
+        <v>17.16393983603261</v>
       </c>
     </row>
     <row r="7421" spans="1:2">
@@ -59719,7 +59719,7 @@
         <v>7422</v>
       </c>
       <c r="B7422">
-        <v>21.15503985473055</v>
+        <v>21.15503985473054</v>
       </c>
     </row>
     <row r="7423" spans="1:2">
@@ -59735,7 +59735,7 @@
         <v>7424</v>
       </c>
       <c r="B7424">
-        <v>18.67603986000583</v>
+        <v>18.67603986000582</v>
       </c>
     </row>
     <row r="7425" spans="1:2">
@@ -59919,7 +59919,7 @@
         <v>7447</v>
       </c>
       <c r="B7447">
-        <v>12.38691121295656</v>
+        <v>12.38691121295655</v>
       </c>
     </row>
     <row r="7448" spans="1:2">
@@ -59935,7 +59935,7 @@
         <v>7449</v>
       </c>
       <c r="B7449">
-        <v>5.397987539791721</v>
+        <v>5.39798753979172</v>
       </c>
     </row>
     <row r="7450" spans="1:2">
@@ -60111,7 +60111,7 @@
         <v>7471</v>
       </c>
       <c r="B7471">
-        <v>34.19083965438719</v>
+        <v>34.19083965438718</v>
       </c>
     </row>
     <row r="7472" spans="1:2">
@@ -60167,7 +60167,7 @@
         <v>7478</v>
       </c>
       <c r="B7478">
-        <v>0.3854616835993344</v>
+        <v>0.3854616835993343</v>
       </c>
     </row>
     <row r="7479" spans="1:2">
@@ -60239,7 +60239,7 @@
         <v>7487</v>
       </c>
       <c r="B7487">
-        <v>24.51712150314964</v>
+        <v>24.51712150314963</v>
       </c>
     </row>
     <row r="7488" spans="1:2">
@@ -60295,7 +60295,7 @@
         <v>7494</v>
       </c>
       <c r="B7494">
-        <v>49.73151762148235</v>
+        <v>49.73151762148234</v>
       </c>
     </row>
     <row r="7495" spans="1:2">
@@ -60303,7 +60303,7 @@
         <v>7495</v>
       </c>
       <c r="B7495">
-        <v>51.84104295776671</v>
+        <v>51.8410429577667</v>
       </c>
     </row>
     <row r="7496" spans="1:2">
@@ -60335,7 +60335,7 @@
         <v>7499</v>
       </c>
       <c r="B7499">
-        <v>43.88738803953646</v>
+        <v>43.88738803953645</v>
       </c>
     </row>
     <row r="7500" spans="1:2">
@@ -60351,7 +60351,7 @@
         <v>7501</v>
       </c>
       <c r="B7501">
-        <v>39.543489104498</v>
+        <v>39.54348910449799</v>
       </c>
     </row>
     <row r="7502" spans="1:2">
@@ -60359,7 +60359,7 @@
         <v>7502</v>
       </c>
       <c r="B7502">
-        <v>29.92929368121257</v>
+        <v>29.92929368121256</v>
       </c>
     </row>
     <row r="7503" spans="1:2">
@@ -60367,7 +60367,7 @@
         <v>7503</v>
       </c>
       <c r="B7503">
-        <v>34.89391707613576</v>
+        <v>34.89391707613575</v>
       </c>
     </row>
     <row r="7504" spans="1:2">
@@ -60399,7 +60399,7 @@
         <v>7507</v>
       </c>
       <c r="B7507">
-        <v>39.19707913680029</v>
+        <v>39.19707913680028</v>
       </c>
     </row>
     <row r="7508" spans="1:2">
@@ -60575,7 +60575,7 @@
         <v>7529</v>
       </c>
       <c r="B7529">
-        <v>27.44232215423626</v>
+        <v>27.44232215423625</v>
       </c>
     </row>
     <row r="7530" spans="1:2">
@@ -60679,7 +60679,7 @@
         <v>7542</v>
       </c>
       <c r="B7542">
-        <v>73.22204058330516</v>
+        <v>73.22204058330514</v>
       </c>
     </row>
     <row r="7543" spans="1:2">
@@ -60695,7 +60695,7 @@
         <v>7544</v>
       </c>
       <c r="B7544">
-        <v>84.86252916789513</v>
+        <v>84.86252916789512</v>
       </c>
     </row>
     <row r="7545" spans="1:2">
@@ -60719,7 +60719,7 @@
         <v>7547</v>
       </c>
       <c r="B7547">
-        <v>43.24028718617221</v>
+        <v>43.2402871861722</v>
       </c>
     </row>
     <row r="7548" spans="1:2">
@@ -61039,7 +61039,7 @@
         <v>7587</v>
       </c>
       <c r="B7587">
-        <v>50.99025773253283</v>
+        <v>50.99025773253282</v>
       </c>
     </row>
     <row r="7588" spans="1:2">
@@ -61055,7 +61055,7 @@
         <v>7589</v>
       </c>
       <c r="B7589">
-        <v>55.86608060274163</v>
+        <v>55.86608060274162</v>
       </c>
     </row>
     <row r="7590" spans="1:2">
@@ -61079,7 +61079,7 @@
         <v>7592</v>
       </c>
       <c r="B7592">
-        <v>58.09283435449053</v>
+        <v>58.09283435449052</v>
       </c>
     </row>
     <row r="7593" spans="1:2">
@@ -61183,7 +61183,7 @@
         <v>7605</v>
       </c>
       <c r="B7605">
-        <v>35.87482584253528</v>
+        <v>35.87482584253527</v>
       </c>
     </row>
     <row r="7606" spans="1:2">
@@ -61255,7 +61255,7 @@
         <v>7614</v>
       </c>
       <c r="B7614">
-        <v>67.47960665177476</v>
+        <v>67.47960665177474</v>
       </c>
     </row>
     <row r="7615" spans="1:2">
@@ -61271,7 +61271,7 @@
         <v>7616</v>
       </c>
       <c r="B7616">
-        <v>73.45649741423424</v>
+        <v>73.45649741423422</v>
       </c>
     </row>
     <row r="7617" spans="1:2">
@@ -61407,7 +61407,7 @@
         <v>7633</v>
       </c>
       <c r="B7633">
-        <v>43.38535735030958</v>
+        <v>43.38535735030957</v>
       </c>
     </row>
     <row r="7634" spans="1:2">
@@ -61439,7 +61439,7 @@
         <v>7637</v>
       </c>
       <c r="B7637">
-        <v>54.48073380298945</v>
+        <v>54.48073380298944</v>
       </c>
     </row>
     <row r="7638" spans="1:2">
@@ -61447,7 +61447,7 @@
         <v>7638</v>
       </c>
       <c r="B7638">
-        <v>56.23066097483634</v>
+        <v>56.23066097483633</v>
       </c>
     </row>
     <row r="7639" spans="1:2">
@@ -61455,7 +61455,7 @@
         <v>7639</v>
       </c>
       <c r="B7639">
-        <v>59.50455754772223</v>
+        <v>59.50455754772222</v>
       </c>
     </row>
     <row r="7640" spans="1:2">
@@ -61591,7 +61591,7 @@
         <v>7656</v>
       </c>
       <c r="B7656">
-        <v>28.53152066942115</v>
+        <v>28.53152066942114</v>
       </c>
     </row>
     <row r="7657" spans="1:2">
@@ -61679,7 +61679,7 @@
         <v>7667</v>
       </c>
       <c r="B7667">
-        <v>24.8331986183459</v>
+        <v>24.83319861834589</v>
       </c>
     </row>
     <row r="7668" spans="1:2">
@@ -61687,7 +61687,7 @@
         <v>7668</v>
       </c>
       <c r="B7668">
-        <v>18.95621577296608</v>
+        <v>18.95621577296607</v>
       </c>
     </row>
     <row r="7669" spans="1:2">
@@ -61775,7 +61775,7 @@
         <v>7679</v>
       </c>
       <c r="B7679">
-        <v>32.3233909960371</v>
+        <v>32.32339099603709</v>
       </c>
     </row>
     <row r="7680" spans="1:2">
@@ -62015,7 +62015,7 @@
         <v>7709</v>
       </c>
       <c r="B7709">
-        <v>42.29484001545071</v>
+        <v>42.2948400154507</v>
       </c>
     </row>
     <row r="7710" spans="1:2">
@@ -62023,7 +62023,7 @@
         <v>7710</v>
       </c>
       <c r="B7710">
-        <v>46.48341129999866</v>
+        <v>46.48341129999865</v>
       </c>
     </row>
     <row r="7711" spans="1:2">
@@ -62031,7 +62031,7 @@
         <v>7711</v>
       </c>
       <c r="B7711">
-        <v>66.42777469401919</v>
+        <v>66.42777469401918</v>
       </c>
     </row>
     <row r="7712" spans="1:2">
@@ -62183,7 +62183,7 @@
         <v>7730</v>
       </c>
       <c r="B7730">
-        <v>26.31141963024986</v>
+        <v>26.31141963024985</v>
       </c>
     </row>
     <row r="7731" spans="1:2">
@@ -62247,7 +62247,7 @@
         <v>7738</v>
       </c>
       <c r="B7738">
-        <v>31.41955991280551</v>
+        <v>31.4195599128055</v>
       </c>
     </row>
     <row r="7739" spans="1:2">
@@ -62399,7 +62399,7 @@
         <v>7757</v>
       </c>
       <c r="B7757">
-        <v>20.25041747969458</v>
+        <v>20.25041747969457</v>
       </c>
     </row>
     <row r="7758" spans="1:2">
@@ -62639,7 +62639,7 @@
         <v>7787</v>
       </c>
       <c r="B7787">
-        <v>25.32019476328946</v>
+        <v>25.32019476328945</v>
       </c>
     </row>
     <row r="7788" spans="1:2">
@@ -63383,7 +63383,7 @@
         <v>7880</v>
       </c>
       <c r="B7880">
-        <v>5.843543439868564</v>
+        <v>5.843543439868563</v>
       </c>
     </row>
     <row r="7881" spans="1:2">
@@ -63559,7 +63559,7 @@
         <v>7902</v>
       </c>
       <c r="B7902">
-        <v>40.42768442813928</v>
+        <v>40.42768442813927</v>
       </c>
     </row>
     <row r="7903" spans="1:2">
@@ -63759,7 +63759,7 @@
         <v>7927</v>
       </c>
       <c r="B7927">
-        <v>41.12314200288265</v>
+        <v>41.12314200288264</v>
       </c>
     </row>
     <row r="7928" spans="1:2">
@@ -64383,7 +64383,7 @@
         <v>8005</v>
       </c>
       <c r="B8005">
-        <v>7.508392089192069</v>
+        <v>7.508392089192068</v>
       </c>
     </row>
     <row r="8006" spans="1:2">
@@ -64503,7 +64503,7 @@
         <v>8020</v>
       </c>
       <c r="B8020">
-        <v>47.26825554153374</v>
+        <v>47.26825554153373</v>
       </c>
     </row>
     <row r="8021" spans="1:2">
@@ -64527,7 +64527,7 @@
         <v>8023</v>
       </c>
       <c r="B8023">
-        <v>63.14244835062551</v>
+        <v>63.1424483506255</v>
       </c>
     </row>
     <row r="8024" spans="1:2">
@@ -64631,7 +64631,7 @@
         <v>8036</v>
       </c>
       <c r="B8036">
-        <v>30.78916410864496</v>
+        <v>30.78916410864495</v>
       </c>
     </row>
     <row r="8037" spans="1:2">
@@ -64647,7 +64647,7 @@
         <v>8038</v>
       </c>
       <c r="B8038">
-        <v>36.68751183274319</v>
+        <v>36.68751183274318</v>
       </c>
     </row>
     <row r="8039" spans="1:2">
@@ -64695,7 +64695,7 @@
         <v>8044</v>
       </c>
       <c r="B8044">
-        <v>58.20244292294987</v>
+        <v>58.20244292294986</v>
       </c>
     </row>
     <row r="8045" spans="1:2">
@@ -64727,7 +64727,7 @@
         <v>8048</v>
       </c>
       <c r="B8048">
-        <v>96.35736144627042</v>
+        <v>96.3573614462704</v>
       </c>
     </row>
     <row r="8049" spans="1:2">
@@ -64791,7 +64791,7 @@
         <v>8056</v>
       </c>
       <c r="B8056">
-        <v>14.66583160958718</v>
+        <v>14.66583160958717</v>
       </c>
     </row>
     <row r="8057" spans="1:2">
@@ -64895,7 +64895,7 @@
         <v>8069</v>
       </c>
       <c r="B8069">
-        <v>50.56999386309246</v>
+        <v>50.56999386309245</v>
       </c>
     </row>
     <row r="8070" spans="1:2">
@@ -64975,7 +64975,7 @@
         <v>8079</v>
       </c>
       <c r="B8079">
-        <v>0.1336946117717258</v>
+        <v>0.1336946117717257</v>
       </c>
     </row>
     <row r="8080" spans="1:2">
@@ -65127,7 +65127,7 @@
         <v>8098</v>
       </c>
       <c r="B8098">
-        <v>32.8685031279472</v>
+        <v>32.86850312794719</v>
       </c>
     </row>
     <row r="8099" spans="1:2">
@@ -65135,7 +65135,7 @@
         <v>8099</v>
       </c>
       <c r="B8099">
-        <v>28.31118986255555</v>
+        <v>28.31118986255554</v>
       </c>
     </row>
     <row r="8100" spans="1:2">
@@ -65255,7 +65255,7 @@
         <v>8114</v>
       </c>
       <c r="B8114">
-        <v>33.34503663681055</v>
+        <v>33.34503663681054</v>
       </c>
     </row>
     <row r="8115" spans="1:2">
@@ -65311,7 +65311,7 @@
         <v>8121</v>
       </c>
       <c r="B8121">
-        <v>50.69718669387148</v>
+        <v>50.69718669387147</v>
       </c>
     </row>
     <row r="8122" spans="1:2">
@@ -65455,7 +65455,7 @@
         <v>8139</v>
       </c>
       <c r="B8139">
-        <v>49.28341200336915</v>
+        <v>49.28341200336914</v>
       </c>
     </row>
     <row r="8140" spans="1:2">
@@ -65479,7 +65479,7 @@
         <v>8142</v>
       </c>
       <c r="B8142">
-        <v>58.39088760080912</v>
+        <v>58.39088760080911</v>
       </c>
     </row>
     <row r="8143" spans="1:2">
@@ -65487,7 +65487,7 @@
         <v>8143</v>
       </c>
       <c r="B8143">
-        <v>61.97309490636674</v>
+        <v>61.97309490636673</v>
       </c>
     </row>
     <row r="8144" spans="1:2">
@@ -65655,7 +65655,7 @@
         <v>8164</v>
       </c>
       <c r="B8164">
-        <v>60.89576576824764</v>
+        <v>60.89576576824763</v>
       </c>
     </row>
     <row r="8165" spans="1:2">
@@ -65663,7 +65663,7 @@
         <v>8165</v>
       </c>
       <c r="B8165">
-        <v>62.66591484176216</v>
+        <v>62.66591484176215</v>
       </c>
     </row>
     <row r="8166" spans="1:2">
@@ -65735,7 +65735,7 @@
         <v>8174</v>
       </c>
       <c r="B8174">
-        <v>41.38016530378865</v>
+        <v>41.38016530378864</v>
       </c>
     </row>
     <row r="8175" spans="1:2">
@@ -65895,7 +65895,7 @@
         <v>8194</v>
       </c>
       <c r="B8194">
-        <v>75.04933850935865</v>
+        <v>75.04933850935863</v>
       </c>
     </row>
     <row r="8195" spans="1:2">
@@ -65903,7 +65903,7 @@
         <v>8195</v>
       </c>
       <c r="B8195">
-        <v>66.48345819136485</v>
+        <v>66.48345819136483</v>
       </c>
     </row>
     <row r="8196" spans="1:2">
@@ -65959,7 +65959,7 @@
         <v>8202</v>
       </c>
       <c r="B8202">
-        <v>49.22714236394617</v>
+        <v>49.22714236394616</v>
       </c>
     </row>
     <row r="8203" spans="1:2">
@@ -65991,7 +65991,7 @@
         <v>8206</v>
       </c>
       <c r="B8206">
-        <v>50.1875361576394</v>
+        <v>50.18753615763939</v>
       </c>
     </row>
     <row r="8207" spans="1:2">
@@ -66079,7 +66079,7 @@
         <v>8217</v>
       </c>
       <c r="B8217">
-        <v>80.96204671435129</v>
+        <v>80.96204671435127</v>
       </c>
     </row>
     <row r="8218" spans="1:2">
@@ -66095,7 +66095,7 @@
         <v>8219</v>
       </c>
       <c r="B8219">
-        <v>65.16669001465942</v>
+        <v>65.16669001465941</v>
       </c>
     </row>
     <row r="8220" spans="1:2">
@@ -66215,7 +66215,7 @@
         <v>8234</v>
       </c>
       <c r="B8234">
-        <v>53.65749725538973</v>
+        <v>53.65749725538972</v>
       </c>
     </row>
     <row r="8235" spans="1:2">
@@ -66239,7 +66239,7 @@
         <v>8237</v>
       </c>
       <c r="B8237">
-        <v>57.55006679088972</v>
+        <v>57.55006679088971</v>
       </c>
     </row>
     <row r="8238" spans="1:2">
@@ -66247,7 +66247,7 @@
         <v>8238</v>
       </c>
       <c r="B8238">
-        <v>57.7950741792106</v>
+        <v>57.79507417921059</v>
       </c>
     </row>
     <row r="8239" spans="1:2">
@@ -66351,7 +66351,7 @@
         <v>8251</v>
       </c>
       <c r="B8251">
-        <v>33.28906006842623</v>
+        <v>33.28906006842622</v>
       </c>
     </row>
     <row r="8252" spans="1:2">
@@ -66447,7 +66447,7 @@
         <v>8263</v>
       </c>
       <c r="B8263">
-        <v>55.5812155531628</v>
+        <v>55.58121555316279</v>
       </c>
     </row>
     <row r="8264" spans="1:2">
@@ -66471,7 +66471,7 @@
         <v>8266</v>
       </c>
       <c r="B8266">
-        <v>45.33955503610343</v>
+        <v>45.33955503610342</v>
       </c>
     </row>
     <row r="8267" spans="1:2">
@@ -66583,7 +66583,7 @@
         <v>8280</v>
       </c>
       <c r="B8280">
-        <v>44.46825483816325</v>
+        <v>44.46825483816324</v>
       </c>
     </row>
     <row r="8281" spans="1:2">
@@ -66655,7 +66655,7 @@
         <v>8289</v>
       </c>
       <c r="B8289">
-        <v>61.5806727855992</v>
+        <v>61.58067278559919</v>
       </c>
     </row>
     <row r="8290" spans="1:2">
@@ -66727,7 +66727,7 @@
         <v>8298</v>
       </c>
       <c r="B8298">
-        <v>43.99435896864785</v>
+        <v>43.99435896864784</v>
       </c>
     </row>
     <row r="8299" spans="1:2">
@@ -66751,7 +66751,7 @@
         <v>8301</v>
       </c>
       <c r="B8301">
-        <v>48.17472426411328</v>
+        <v>48.17472426411327</v>
       </c>
     </row>
     <row r="8302" spans="1:2">
@@ -66791,7 +66791,7 @@
         <v>8306</v>
       </c>
       <c r="B8306">
-        <v>58.46767221293839</v>
+        <v>58.46767221293838</v>
       </c>
     </row>
     <row r="8307" spans="1:2">
@@ -66799,7 +66799,7 @@
         <v>8307</v>
       </c>
       <c r="B8307">
-        <v>60.31724353793014</v>
+        <v>60.31724353793013</v>
       </c>
     </row>
     <row r="8308" spans="1:2">
@@ -66847,7 +66847,7 @@
         <v>8313</v>
       </c>
       <c r="B8313">
-        <v>70.31506895082327</v>
+        <v>70.31506895082326</v>
       </c>
     </row>
     <row r="8314" spans="1:2">
@@ -66927,7 +66927,7 @@
         <v>8323</v>
       </c>
       <c r="B8323">
-        <v>43.98937676099061</v>
+        <v>43.9893767609906</v>
       </c>
     </row>
     <row r="8324" spans="1:2">
@@ -66967,7 +66967,7 @@
         <v>8328</v>
       </c>
       <c r="B8328">
-        <v>56.67114674594434</v>
+        <v>56.67114674594433</v>
       </c>
     </row>
     <row r="8329" spans="1:2">
@@ -66999,7 +66999,7 @@
         <v>8332</v>
       </c>
       <c r="B8332">
-        <v>65.46210562163006</v>
+        <v>65.46210562163004</v>
       </c>
     </row>
     <row r="8333" spans="1:2">
@@ -67007,7 +67007,7 @@
         <v>8333</v>
       </c>
       <c r="B8333">
-        <v>68.4505510028598</v>
+        <v>68.45055100285978</v>
       </c>
     </row>
     <row r="8334" spans="1:2">
@@ -67023,7 +67023,7 @@
         <v>8335</v>
       </c>
       <c r="B8335">
-        <v>72.3384314017412</v>
+        <v>72.33843140174119</v>
       </c>
     </row>
     <row r="8336" spans="1:2">
@@ -67039,7 +67039,7 @@
         <v>8337</v>
       </c>
       <c r="B8337">
-        <v>70.46336289638592</v>
+        <v>70.4633628963859</v>
       </c>
     </row>
     <row r="8338" spans="1:2">
@@ -67119,7 +67119,7 @@
         <v>8347</v>
       </c>
       <c r="B8347">
-        <v>35.24062011487213</v>
+        <v>35.24062011487212</v>
       </c>
     </row>
     <row r="8348" spans="1:2">
@@ -67159,7 +67159,7 @@
         <v>8352</v>
       </c>
       <c r="B8352">
-        <v>45.86942747400314</v>
+        <v>45.86942747400313</v>
       </c>
     </row>
     <row r="8353" spans="1:2">
@@ -67319,7 +67319,7 @@
         <v>8372</v>
       </c>
       <c r="B8372">
-        <v>31.54821809877784</v>
+        <v>31.54821809877783</v>
       </c>
     </row>
     <row r="8373" spans="1:2">
@@ -67351,7 +67351,7 @@
         <v>8376</v>
       </c>
       <c r="B8376">
-        <v>39.65807988061459</v>
+        <v>39.65807988061458</v>
       </c>
     </row>
     <row r="8377" spans="1:2">
@@ -67359,7 +67359,7 @@
         <v>8377</v>
       </c>
       <c r="B8377">
-        <v>42.74323870460257</v>
+        <v>42.74323870460256</v>
       </c>
     </row>
     <row r="8378" spans="1:2">
@@ -67423,7 +67423,7 @@
         <v>8385</v>
       </c>
       <c r="B8385">
-        <v>75.52499280510601</v>
+        <v>75.524992805106</v>
       </c>
     </row>
     <row r="8386" spans="1:2">
@@ -67431,7 +67431,7 @@
         <v>8386</v>
       </c>
       <c r="B8386">
-        <v>67.04908529598124</v>
+        <v>67.04908529598123</v>
       </c>
     </row>
     <row r="8387" spans="1:2">
@@ -67535,7 +67535,7 @@
         <v>8399</v>
       </c>
       <c r="B8399">
-        <v>30.54327750720809</v>
+        <v>30.54327750720808</v>
       </c>
     </row>
     <row r="8400" spans="1:2">
@@ -67543,7 +67543,7 @@
         <v>8400</v>
       </c>
       <c r="B8400">
-        <v>32.45849674485998</v>
+        <v>32.45849674485997</v>
       </c>
     </row>
     <row r="8401" spans="1:2">
@@ -67807,7 +67807,7 @@
         <v>8433</v>
       </c>
       <c r="B8433">
-        <v>38.96760451352846</v>
+        <v>38.96760451352845</v>
       </c>
     </row>
     <row r="8434" spans="1:2">
@@ -67831,7 +67831,7 @@
         <v>8436</v>
       </c>
       <c r="B8436">
-        <v>8.918474084607265</v>
+        <v>8.918474084607263</v>
       </c>
     </row>
     <row r="8437" spans="1:2">
@@ -67895,7 +67895,7 @@
         <v>8444</v>
       </c>
       <c r="B8444">
-        <v>20.54410396753711</v>
+        <v>20.5441039675371</v>
       </c>
     </row>
     <row r="8445" spans="1:2">
@@ -67903,7 +67903,7 @@
         <v>8445</v>
       </c>
       <c r="B8445">
-        <v>22.54138309601418</v>
+        <v>22.54138309601417</v>
       </c>
     </row>
     <row r="8446" spans="1:2">
@@ -67991,7 +67991,7 @@
         <v>8456</v>
       </c>
       <c r="B8456">
-        <v>45.92305947407817</v>
+        <v>45.92305947407816</v>
       </c>
     </row>
     <row r="8457" spans="1:2">
@@ -68071,7 +68071,7 @@
         <v>8466</v>
       </c>
       <c r="B8466">
-        <v>28.2259061903051</v>
+        <v>28.22590619030509</v>
       </c>
     </row>
     <row r="8467" spans="1:2">
@@ -68111,7 +68111,7 @@
         <v>8471</v>
       </c>
       <c r="B8471">
-        <v>38.19829303704243</v>
+        <v>38.19829303704242</v>
       </c>
     </row>
     <row r="8472" spans="1:2">
@@ -68119,7 +68119,7 @@
         <v>8472</v>
       </c>
       <c r="B8472">
-        <v>41.44933006891273</v>
+        <v>41.44933006891272</v>
       </c>
     </row>
     <row r="8473" spans="1:2">
@@ -68159,7 +68159,7 @@
         <v>8477</v>
       </c>
       <c r="B8477">
-        <v>52.84510433622048</v>
+        <v>52.84510433622047</v>
       </c>
     </row>
     <row r="8478" spans="1:2">
@@ -68311,7 +68311,7 @@
         <v>8496</v>
       </c>
       <c r="B8496">
-        <v>50.9366257324578</v>
+        <v>50.93662573245779</v>
       </c>
     </row>
     <row r="8497" spans="1:2">
@@ -68319,7 +68319,7 @@
         <v>8497</v>
       </c>
       <c r="B8497">
-        <v>54.43442857888096</v>
+        <v>54.43442857888095</v>
       </c>
     </row>
     <row r="8498" spans="1:2">
@@ -68335,7 +68335,7 @@
         <v>8499</v>
       </c>
       <c r="B8499">
-        <v>59.07139855258076</v>
+        <v>59.07139855258075</v>
       </c>
     </row>
     <row r="8500" spans="1:2">
@@ -68359,7 +68359,7 @@
         <v>8502</v>
       </c>
       <c r="B8502">
-        <v>66.0198198082026</v>
+        <v>66.01981980820258</v>
       </c>
     </row>
     <row r="8503" spans="1:2">
@@ -68375,7 +68375,7 @@
         <v>8504</v>
       </c>
       <c r="B8504">
-        <v>72.07349518279135</v>
+        <v>72.07349518279133</v>
       </c>
     </row>
     <row r="8505" spans="1:2">
@@ -68423,7 +68423,7 @@
         <v>8510</v>
       </c>
       <c r="B8510">
-        <v>35.27608171055015</v>
+        <v>35.27608171055014</v>
       </c>
     </row>
     <row r="8511" spans="1:2">
@@ -68463,7 +68463,7 @@
         <v>8515</v>
       </c>
       <c r="B8515">
-        <v>41.64510152273851</v>
+        <v>41.6451015227385</v>
       </c>
     </row>
     <row r="8516" spans="1:2">
@@ -68487,7 +68487,7 @@
         <v>8518</v>
       </c>
       <c r="B8518">
-        <v>47.88956614349579</v>
+        <v>47.88956614349578</v>
       </c>
     </row>
     <row r="8519" spans="1:2">
@@ -68495,7 +68495,7 @@
         <v>8519</v>
       </c>
       <c r="B8519">
-        <v>51.07905825724721</v>
+        <v>51.0790582572472</v>
       </c>
     </row>
     <row r="8520" spans="1:2">
@@ -68511,7 +68511,7 @@
         <v>8521</v>
       </c>
       <c r="B8521">
-        <v>56.26143343389578</v>
+        <v>56.26143343389577</v>
       </c>
     </row>
     <row r="8522" spans="1:2">
@@ -68583,7 +68583,7 @@
         <v>8530</v>
       </c>
       <c r="B8530">
-        <v>69.89509815242157</v>
+        <v>69.89509815242155</v>
       </c>
     </row>
     <row r="8531" spans="1:2">
@@ -68711,7 +68711,7 @@
         <v>8546</v>
       </c>
       <c r="B8546">
-        <v>62.38075672114467</v>
+        <v>62.38075672114466</v>
       </c>
     </row>
     <row r="8547" spans="1:2">
@@ -68767,7 +68767,7 @@
         <v>8553</v>
       </c>
       <c r="B8553">
-        <v>95.92742623255424</v>
+        <v>95.9274262325542</v>
       </c>
     </row>
     <row r="8554" spans="1:2">
@@ -68783,7 +68783,7 @@
         <v>8555</v>
       </c>
       <c r="B8555">
-        <v>80.16196277880582</v>
+        <v>80.1619627788058</v>
       </c>
     </row>
     <row r="8556" spans="1:2">
@@ -68895,7 +68895,7 @@
         <v>8569</v>
       </c>
       <c r="B8569">
-        <v>59.26717000640654</v>
+        <v>59.26717000640653</v>
       </c>
     </row>
     <row r="8570" spans="1:2">
@@ -68903,7 +68903,7 @@
         <v>8570</v>
       </c>
       <c r="B8570">
-        <v>61.28027497097132</v>
+        <v>61.28027497097131</v>
       </c>
     </row>
     <row r="8571" spans="1:2">
@@ -68927,7 +68927,7 @@
         <v>8573</v>
       </c>
       <c r="B8573">
-        <v>68.29287878405999</v>
+        <v>68.29287878405998</v>
       </c>
     </row>
     <row r="8574" spans="1:2">
@@ -68935,7 +68935,7 @@
         <v>8574</v>
       </c>
       <c r="B8574">
-        <v>70.05013273187342</v>
+        <v>70.0501327318734</v>
       </c>
     </row>
     <row r="8575" spans="1:2">
@@ -68951,7 +68951,7 @@
         <v>8576</v>
       </c>
       <c r="B8576">
-        <v>76.36610668606407</v>
+        <v>76.36610668606406</v>
       </c>
     </row>
     <row r="8577" spans="1:2">
@@ -68967,7 +68967,7 @@
         <v>8578</v>
       </c>
       <c r="B8578">
-        <v>76.36083140736817</v>
+        <v>76.36083140736815</v>
       </c>
     </row>
     <row r="8579" spans="1:2">
@@ -69023,7 +69023,7 @@
         <v>8585</v>
       </c>
       <c r="B8585">
-        <v>39.06959323498261</v>
+        <v>39.0695932349826</v>
       </c>
     </row>
     <row r="8586" spans="1:2">
@@ -69071,7 +69071,7 @@
         <v>8591</v>
       </c>
       <c r="B8591">
-        <v>54.14927045826347</v>
+        <v>54.14927045826346</v>
       </c>
     </row>
     <row r="8592" spans="1:2">
@@ -69079,7 +69079,7 @@
         <v>8592</v>
       </c>
       <c r="B8592">
-        <v>55.96543168484782</v>
+        <v>55.96543168484781</v>
       </c>
     </row>
     <row r="8593" spans="1:2">
@@ -69367,7 +69367,7 @@
         <v>8628</v>
       </c>
       <c r="B8628">
-        <v>47.91506332385933</v>
+        <v>47.91506332385932</v>
       </c>
     </row>
     <row r="8629" spans="1:2">
@@ -69391,7 +69391,7 @@
         <v>8631</v>
       </c>
       <c r="B8631">
-        <v>28.61991089468141</v>
+        <v>28.6199108946814</v>
       </c>
     </row>
     <row r="8632" spans="1:2">
@@ -69439,7 +69439,7 @@
         <v>8637</v>
       </c>
       <c r="B8637">
-        <v>41.31920652774709</v>
+        <v>41.31920652774708</v>
       </c>
     </row>
     <row r="8638" spans="1:2">
@@ -69447,7 +69447,7 @@
         <v>8638</v>
       </c>
       <c r="B8638">
-        <v>42.67436701051715</v>
+        <v>42.67436701051714</v>
       </c>
     </row>
     <row r="8639" spans="1:2">
@@ -69527,7 +69527,7 @@
         <v>8648</v>
       </c>
       <c r="B8648">
-        <v>60.28412651056141</v>
+        <v>60.2841265105614</v>
       </c>
     </row>
     <row r="8649" spans="1:2">
@@ -69663,7 +69663,7 @@
         <v>8665</v>
       </c>
       <c r="B8665">
-        <v>38.87587327842746</v>
+        <v>38.87587327842745</v>
       </c>
     </row>
     <row r="8666" spans="1:2">
@@ -69671,7 +69671,7 @@
         <v>8666</v>
       </c>
       <c r="B8666">
-        <v>42.22626139240396</v>
+        <v>42.22626139240395</v>
       </c>
     </row>
     <row r="8667" spans="1:2">
@@ -69839,7 +69839,7 @@
         <v>8687</v>
       </c>
       <c r="B8687">
-        <v>23.0195871097979</v>
+        <v>23.01958710979789</v>
       </c>
     </row>
     <row r="8688" spans="1:2">
@@ -69879,7 +69879,7 @@
         <v>8692</v>
       </c>
       <c r="B8692">
-        <v>34.4713086383861</v>
+        <v>34.47130863838609</v>
       </c>
     </row>
     <row r="8693" spans="1:2">
@@ -69991,7 +69991,7 @@
         <v>8706</v>
       </c>
       <c r="B8706">
-        <v>9.506169438434862</v>
+        <v>9.50616943843486</v>
       </c>
     </row>
     <row r="8707" spans="1:2">
@@ -70215,7 +70215,7 @@
         <v>8734</v>
       </c>
       <c r="B8734">
-        <v>4.248738768785121</v>
+        <v>4.24873876878512</v>
       </c>
     </row>
     <row r="8735" spans="1:2">
@@ -70231,7 +70231,7 @@
         <v>8736</v>
       </c>
       <c r="B8736">
-        <v>18.41910448041143</v>
+        <v>18.41910448041142</v>
       </c>
     </row>
     <row r="8737" spans="1:2">
@@ -70271,7 +70271,7 @@
         <v>8741</v>
       </c>
       <c r="B8741">
-        <v>46.36618288453412</v>
+        <v>46.36618288453411</v>
       </c>
     </row>
     <row r="8742" spans="1:2">
